--- a/Dictionary.xlsx
+++ b/Dictionary.xlsx
@@ -24,16 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="196">
   <si>
     <t>Battery</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>배터리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>축전지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -42,10 +38,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>통신 콘솔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>통신 제어반</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -54,30 +46,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>동면장치/동면기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>동면장치</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Mercenary Bruiser</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>용병 선봉장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Colonist</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>거주민/주민</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>거주민</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -86,22 +62,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기존</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Bill</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>계산서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>계획서</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -110,10 +74,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>궤도 송수신기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>궤도 송신기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -122,10 +82,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>원주민</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>부족</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -134,10 +90,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>거주지/정착지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>정착지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -146,10 +98,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>파워 클로/강화 발톱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>강화 발톱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -158,10 +106,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>인공/생체공학</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>생체공학</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -170,10 +114,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>의족</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>나무 의족</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -198,22 +138,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>덩치 = 선봉장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수신은 통신 제어반으로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Megascarab</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>거대 쇠똥구리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>거대 풍뎅이</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -238,10 +166,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>지네봇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>센티피드</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -250,10 +174,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>유랑민</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>유랑자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -262,18 +182,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>거지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>강도</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>수집하는 자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Thrasher</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -282,18 +194,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>쓰레셔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Chief</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>촌장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>부족장</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -302,34 +206,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>도살</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>도축</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Slag Chunk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>슬래그 덩어리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>커다란 금속 파편</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Turret</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>터렛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>포탑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -338,10 +222,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>코어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>핵</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -366,10 +246,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>스토리텔러</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이야기꾼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -378,26 +254,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>건축가 포이베</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>포이베 베이스빌더</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Basebuilder가 Last name임</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Carpet</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>카펫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>양탄자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -414,7 +278,527 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>더스터 코트</t>
+    <t>AI Persona</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인공지능 칩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인공인격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Standing Lamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스탠드 조명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equipment Rack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비 받침대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compacted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>압축된</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nutrient Paste Dispenser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영양반죽 배급기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hopper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>깔대기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cook Stove</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조리용 스토브</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Neurotrainer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신경훈련기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Synthread</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>합성타래</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Devilstrand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>악마가닥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hyperweave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초매듭 옷감</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Devil + Strand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Herbal Medicine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>약초 추출물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xerigium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혈기초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pincushion Cactus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바늘겨레 선인장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Astragalus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자운영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drop Pod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낙하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rifle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소총</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pistol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>권총</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Charge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>충전식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inferno Cannon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지옥불 대포</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Doomsday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최후의 날</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gladius</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보병검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shiv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Short Bow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단궁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long Bow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장궁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Psychic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정신적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prosthophile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개조광</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prosthophobe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개조혐오</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jogger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조깅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mental Break</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정신이상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Faction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adaptive Tutor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Biome</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Goodwill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우호도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ludeonicrous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>터무니 없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반응형 도우미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blueprint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청사진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Glitterworld</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>번화계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>번화(Glitter) + 계(System)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>군락</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hiveworld = 군락계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Urbworld</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조밀계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Midworld</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Medival world</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중세계?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blaster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작열총</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중간계?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바람막이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mercenary Slasher</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용병 학살자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fast walker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빠른 걸음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PDW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인 방어 화기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그냥 PDW로 하는 것도?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보호막</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Steel Slag Chunk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>커다란 강철 파편</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Alpha 9)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Alpha 9)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선봉장에서 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>커다란 금속 파편에서 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brew</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速報와 헷갈림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 내에서 직접 등장하지 않음. 후보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음번 사전에서 제외</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heavy SMG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중기관단총</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Survival</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서바이벌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고민중: 생존이면 생존 소총?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Teak</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Alpha 9)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>티크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hyper- + Weave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S(X)erum + -ium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Synth- + Thread</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ludicrous + Ludeon Studio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cloth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옷감</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옷감 바지 -&gt; 천 바지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -422,563 +806,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>대체제 찾을 때까지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파워아머</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AI Persona</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인공지능 칩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인공인격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Standing Lamp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스탠딩 램프</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스탠드 조명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Equipment Rack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무기고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장비 받침대</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Compacted</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>압축된</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nutrient Paste Dispenser</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영양반죽 합성기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영양반죽 배급기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Synthesize = 합성, Dispense = 배급</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hopper</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>호퍼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>깔대기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cook Stove</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조리용 레인지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조리용 스토브</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Neurotrainer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뉴로트레이너</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신경훈련기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Synthread</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>합성타래</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신스레드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Devilstrand</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>데빌스트랜드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>악마가닥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prosthetic과의 차별</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사람 아닌 단체</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hyperweave</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하이퍼위브</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>초매듭 옷감</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hyper- + Weave + 의역</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Synth- + Thread</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Devil + Strand</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Herbal Medicine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>약초 추출물</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Xerigium</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>혈기초</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S(X)erum + -ium + 의역</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pincushion Cactus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>핀쿠션 선인장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바늘겨레 선인장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Astragalus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자운영</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>황기목의 식물</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Drop Pod</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>낙하 포드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>낙하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rifle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>라이플</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소총</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모든 총에 적용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pistol</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피스톨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>권총</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Charge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>차지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>충전식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Charge Rifle, Charge Blaster…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Inferno Cannon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인페르노 캐논</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지옥불 대포</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Doomsday</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최후의 날</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gladius</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보병검</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shiv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>단도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>면도칼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>면도칼도 맞음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Short Bow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>숏보우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>단궁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Long Bow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>롱보우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장궁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Psychic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>초자연적/초능력적</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정신적</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prosthophile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로스토파일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개조광</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prosthophobe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로스토포브</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개조혐오</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jogger</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조깅하는 사람</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조깅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>특성 감안</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mental Break</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>멘탈붕괴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정신이상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Base</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기반</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Faction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>팩션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Adaptive Tutor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도움말 안내</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Biome</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>생물군계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기후</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Goodwill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>친선관계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우호도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ludeonicrous</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>루데오니크로우스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>터무니 없음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ludicrous</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>반응형 도우미</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Blueprint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>청사진</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>림월드 낱말 번역사전 (15년 2월 3일)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Glitterworld</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>글리터월드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>번화계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>번화(Glitter) + 계(System)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hive</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하이브</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>군락</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hiveworld = 군락계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Urbworld</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조밀계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게임에 직접 등장하지 않음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Midworld</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Medival world</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중세계?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Blaster</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>블래스터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>작열총</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중간계?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게임에 직접 등장하지 않음, 후보</t>
+    <t>림월드 낱말 번역사전 (15년 2월 7일)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1075,14 +903,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="표2" displayName="표2" ref="J5:M81" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="표2" displayName="표2" ref="J5:M89" totalsRowShown="0">
   <sortState ref="J6:M81">
     <sortCondition ref="J6"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" name="영문"/>
-    <tableColumn id="2" name="기존"/>
-    <tableColumn id="3" name="수정"/>
+    <tableColumn id="2" name="전"/>
+    <tableColumn id="3" name="현"/>
     <tableColumn id="4" name="비고"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1352,10 +1180,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="J3:M81"/>
+  <dimension ref="J3:M89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="M74" sqref="M74"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1370,7 +1198,7 @@
   <sheetData>
     <row r="3" spans="10:13" ht="26.25" x14ac:dyDescent="0.3">
       <c r="J3" s="1" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -1378,876 +1206,796 @@
     </row>
     <row r="5" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="K5" t="s">
-        <v>15</v>
+        <v>166</v>
       </c>
       <c r="L5" t="s">
-        <v>16</v>
+        <v>167</v>
       </c>
       <c r="M5" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J6" t="s">
-        <v>204</v>
-      </c>
-      <c r="K6" t="s">
-        <v>205</v>
+        <v>129</v>
       </c>
       <c r="L6" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J7" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="K7" t="s">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="L7" t="s">
-        <v>104</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J8" t="s">
-        <v>148</v>
+        <v>93</v>
       </c>
       <c r="L8" t="s">
-        <v>149</v>
-      </c>
-      <c r="M8" t="s">
-        <v>150</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J9" t="s">
-        <v>198</v>
-      </c>
-      <c r="K9" t="s">
-        <v>199</v>
+        <v>125</v>
       </c>
       <c r="L9" t="s">
-        <v>200</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J10" t="s">
         <v>0</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>1</v>
-      </c>
-      <c r="L10" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="11" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="L11" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J12" t="s">
-        <v>206</v>
-      </c>
-      <c r="K12" t="s">
-        <v>207</v>
+        <v>130</v>
       </c>
       <c r="L12" t="s">
-        <v>208</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J13" t="s">
-        <v>32</v>
-      </c>
-      <c r="K13" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="L13" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J14" t="s">
-        <v>234</v>
-      </c>
-      <c r="K14" t="s">
-        <v>235</v>
+        <v>150</v>
       </c>
       <c r="L14" t="s">
-        <v>236</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J15" t="s">
-        <v>217</v>
-      </c>
-      <c r="K15" t="s">
-        <v>100</v>
+        <v>137</v>
       </c>
       <c r="L15" t="s">
-        <v>218</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J16" t="s">
-        <v>68</v>
+        <v>172</v>
       </c>
       <c r="K16" t="s">
-        <v>69</v>
+        <v>165</v>
       </c>
       <c r="L16" t="s">
-        <v>70</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J17" t="s">
-        <v>91</v>
-      </c>
-      <c r="K17" t="s">
-        <v>92</v>
+        <v>44</v>
       </c>
       <c r="L17" t="s">
-        <v>93</v>
+        <v>45</v>
+      </c>
+      <c r="M17" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J18" t="s">
-        <v>52</v>
-      </c>
-      <c r="K18" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="L18" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="M18" t="s">
-        <v>99</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J19" t="s">
-        <v>161</v>
-      </c>
-      <c r="K19" t="s">
-        <v>162</v>
+        <v>34</v>
       </c>
       <c r="L19" t="s">
-        <v>163</v>
-      </c>
-      <c r="M19" t="s">
-        <v>164</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J20" t="s">
-        <v>65</v>
-      </c>
-      <c r="K20" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="L20" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L21" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J22" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="L22" t="s">
-        <v>13</v>
+        <v>24</v>
+      </c>
+      <c r="M22" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J23" t="s">
-        <v>26</v>
-      </c>
-      <c r="K23" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="L23" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J24" t="s">
-        <v>3</v>
-      </c>
-      <c r="K24" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="L24" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J25" t="s">
-        <v>111</v>
+        <v>2</v>
       </c>
       <c r="L25" t="s">
-        <v>112</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J26" t="s">
-        <v>120</v>
-      </c>
-      <c r="K26" t="s">
-        <v>121</v>
+        <v>70</v>
       </c>
       <c r="L26" t="s">
-        <v>122</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J27" t="s">
+        <v>76</v>
+      </c>
+      <c r="L27" t="s">
         <v>77</v>
-      </c>
-      <c r="K27" t="s">
-        <v>78</v>
-      </c>
-      <c r="L27" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="28" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J28" t="s">
-        <v>6</v>
-      </c>
-      <c r="K28" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="L28" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J29" t="s">
-        <v>129</v>
+        <v>190</v>
       </c>
       <c r="K29" t="s">
-        <v>130</v>
+        <v>191</v>
       </c>
       <c r="L29" t="s">
-        <v>131</v>
+        <v>192</v>
       </c>
       <c r="M29" t="s">
-        <v>139</v>
+        <v>193</v>
       </c>
     </row>
     <row r="30" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J30" t="s">
-        <v>168</v>
+        <v>4</v>
       </c>
       <c r="L30" t="s">
-        <v>169</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J31" t="s">
-        <v>55</v>
-      </c>
-      <c r="K31" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="L31" t="s">
-        <v>57</v>
+        <v>83</v>
+      </c>
+      <c r="M31" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J32" t="s">
-        <v>151</v>
-      </c>
-      <c r="K32" t="s">
-        <v>152</v>
+        <v>105</v>
       </c>
       <c r="L32" t="s">
-        <v>153</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J33" t="s">
-        <v>96</v>
-      </c>
-      <c r="K33" t="s">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="L33" t="s">
-        <v>98</v>
-      </c>
-      <c r="M33" t="s">
-        <v>99</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J34" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="L34" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J35" t="s">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="K35" t="s">
-        <v>109</v>
+        <v>194</v>
       </c>
       <c r="L35" t="s">
-        <v>110</v>
+        <v>153</v>
       </c>
     </row>
     <row r="36" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J36" t="s">
-        <v>201</v>
-      </c>
-      <c r="K36" t="s">
-        <v>203</v>
+        <v>32</v>
       </c>
       <c r="L36" t="s">
-        <v>202</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J37" t="s">
-        <v>170</v>
+        <v>68</v>
       </c>
       <c r="L37" t="s">
-        <v>171</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J38" t="s">
-        <v>220</v>
-      </c>
-      <c r="K38" t="s">
-        <v>221</v>
+        <v>127</v>
       </c>
       <c r="L38" t="s">
-        <v>222</v>
-      </c>
-      <c r="M38" t="s">
-        <v>223</v>
+        <v>128</v>
       </c>
     </row>
     <row r="39" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J39" t="s">
-        <v>82</v>
+        <v>156</v>
+      </c>
+      <c r="K39" t="s">
+        <v>171</v>
       </c>
       <c r="L39" t="s">
-        <v>83</v>
+        <v>157</v>
+      </c>
+      <c r="M39" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="40" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J40" t="s">
-        <v>209</v>
-      </c>
-      <c r="K40" t="s">
-        <v>210</v>
+        <v>107</v>
       </c>
       <c r="L40" t="s">
-        <v>211</v>
+        <v>108</v>
       </c>
     </row>
     <row r="41" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J41" t="s">
-        <v>48</v>
+        <v>139</v>
       </c>
       <c r="L41" t="s">
-        <v>49</v>
+        <v>140</v>
+      </c>
+      <c r="M41" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="42" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J42" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="L42" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J43" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="L43" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="44" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J44" t="s">
-        <v>224</v>
-      </c>
-      <c r="K44" t="s">
-        <v>225</v>
+        <v>30</v>
       </c>
       <c r="L44" t="s">
-        <v>226</v>
-      </c>
-      <c r="M44" t="s">
-        <v>227</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J45" t="s">
-        <v>117</v>
-      </c>
-      <c r="K45" t="s">
-        <v>118</v>
+        <v>25</v>
       </c>
       <c r="L45" t="s">
-        <v>119</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J46" t="s">
-        <v>134</v>
+        <v>177</v>
       </c>
       <c r="K46" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="L46" t="s">
-        <v>136</v>
-      </c>
-      <c r="M46" t="s">
-        <v>137</v>
+        <v>178</v>
       </c>
     </row>
     <row r="47" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J47" t="s">
-        <v>165</v>
-      </c>
-      <c r="K47" t="s">
-        <v>166</v>
+        <v>87</v>
       </c>
       <c r="L47" t="s">
-        <v>167</v>
+        <v>88</v>
       </c>
     </row>
     <row r="48" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J48" t="s">
-        <v>191</v>
-      </c>
-      <c r="K48" t="s">
-        <v>192</v>
+        <v>142</v>
       </c>
       <c r="L48" t="s">
-        <v>193</v>
+        <v>143</v>
       </c>
       <c r="M48" t="s">
-        <v>194</v>
+        <v>144</v>
       </c>
     </row>
     <row r="49" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J49" t="s">
-        <v>179</v>
-      </c>
-      <c r="K49" t="s">
-        <v>180</v>
+        <v>74</v>
       </c>
       <c r="L49" t="s">
-        <v>181</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J50" t="s">
-        <v>212</v>
-      </c>
-      <c r="K50" t="s">
-        <v>213</v>
+        <v>84</v>
       </c>
       <c r="L50" t="s">
-        <v>214</v>
+        <v>85</v>
       </c>
       <c r="M50" t="s">
-        <v>215</v>
+        <v>186</v>
       </c>
     </row>
     <row r="51" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J51" t="s">
-        <v>232</v>
+        <v>103</v>
       </c>
       <c r="L51" t="s">
-        <v>233</v>
-      </c>
-      <c r="M51" t="s">
-        <v>238</v>
+        <v>104</v>
       </c>
     </row>
     <row r="52" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J52" t="s">
-        <v>45</v>
-      </c>
-      <c r="K52" t="s">
-        <v>46</v>
+        <v>121</v>
       </c>
       <c r="L52" t="s">
-        <v>47</v>
+        <v>122</v>
       </c>
     </row>
     <row r="53" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J53" t="s">
-        <v>195</v>
-      </c>
-      <c r="K53" t="s">
-        <v>196</v>
+        <v>113</v>
       </c>
       <c r="L53" t="s">
-        <v>197</v>
+        <v>114</v>
       </c>
     </row>
     <row r="54" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J54" t="s">
-        <v>9</v>
+        <v>134</v>
       </c>
       <c r="L54" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="M54" t="s">
-        <v>43</v>
+        <v>189</v>
       </c>
     </row>
     <row r="55" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J55" t="s">
-        <v>231</v>
+        <v>148</v>
       </c>
       <c r="L55" t="s">
-        <v>237</v>
+        <v>149</v>
       </c>
       <c r="M55" t="s">
-        <v>238</v>
+        <v>175</v>
       </c>
     </row>
     <row r="56" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J56" t="s">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="L56" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J57" t="s">
         <v>123</v>
       </c>
-      <c r="K57" t="s">
+      <c r="L57" t="s">
         <v>124</v>
-      </c>
-      <c r="L57" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="58" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J58" t="s">
-        <v>113</v>
+        <v>154</v>
       </c>
       <c r="K58" t="s">
-        <v>114</v>
+        <v>165</v>
       </c>
       <c r="L58" t="s">
-        <v>115</v>
+        <v>155</v>
       </c>
       <c r="M58" t="s">
-        <v>116</v>
+        <v>169</v>
       </c>
     </row>
     <row r="59" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J59" t="s">
-        <v>20</v>
-      </c>
-      <c r="K59" t="s">
-        <v>21</v>
+        <v>147</v>
       </c>
       <c r="L59" t="s">
-        <v>22</v>
+        <v>152</v>
       </c>
       <c r="M59" t="s">
-        <v>44</v>
+        <v>175</v>
       </c>
     </row>
     <row r="60" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J60" t="s">
-        <v>35</v>
-      </c>
-      <c r="K60" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="L60" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="M60" t="s">
-        <v>132</v>
+        <v>176</v>
       </c>
     </row>
     <row r="61" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J61" t="s">
-        <v>87</v>
-      </c>
-      <c r="K61" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="L61" t="s">
-        <v>89</v>
-      </c>
-      <c r="M61" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="62" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J62" t="s">
-        <v>145</v>
-      </c>
-      <c r="K62" t="s">
-        <v>146</v>
+        <v>72</v>
       </c>
       <c r="L62" t="s">
-        <v>147</v>
+        <v>73</v>
       </c>
     </row>
     <row r="63" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J63" t="s">
-        <v>158</v>
-      </c>
-      <c r="K63" t="s">
-        <v>159</v>
+        <v>11</v>
       </c>
       <c r="L63" t="s">
-        <v>160</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J64" t="s">
-        <v>94</v>
+        <v>158</v>
       </c>
       <c r="K64" t="s">
-        <v>101</v>
+        <v>168</v>
       </c>
       <c r="L64" t="s">
-        <v>95</v>
+        <v>159</v>
+      </c>
+      <c r="M64" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="65" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J65" t="s">
-        <v>29</v>
-      </c>
-      <c r="K65" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="L65" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J66" t="s">
-        <v>185</v>
-      </c>
-      <c r="K66" t="s">
-        <v>186</v>
+        <v>56</v>
       </c>
       <c r="L66" t="s">
-        <v>187</v>
+        <v>57</v>
+      </c>
+      <c r="M66" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="67" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J67" t="s">
-        <v>188</v>
-      </c>
-      <c r="K67" t="s">
-        <v>189</v>
+        <v>91</v>
       </c>
       <c r="L67" t="s">
-        <v>190</v>
+        <v>92</v>
       </c>
     </row>
     <row r="68" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J68" t="s">
-        <v>182</v>
-      </c>
-      <c r="K68" t="s">
-        <v>183</v>
+        <v>99</v>
       </c>
       <c r="L68" t="s">
-        <v>184</v>
+        <v>100</v>
+      </c>
+      <c r="M68" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="69" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J69" t="s">
-        <v>154</v>
-      </c>
-      <c r="K69" t="s">
-        <v>155</v>
+        <v>60</v>
       </c>
       <c r="L69" t="s">
-        <v>156</v>
-      </c>
-      <c r="M69" t="s">
-        <v>157</v>
+        <v>61</v>
       </c>
     </row>
     <row r="70" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J70" t="s">
-        <v>58</v>
-      </c>
-      <c r="K70" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="L70" t="s">
-        <v>60</v>
-      </c>
-      <c r="M70" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J71" t="s">
-        <v>172</v>
-      </c>
-      <c r="K71" t="s">
-        <v>174</v>
+        <v>117</v>
       </c>
       <c r="L71" t="s">
-        <v>173</v>
-      </c>
-      <c r="M71" t="s">
-        <v>175</v>
+        <v>118</v>
       </c>
     </row>
     <row r="72" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J72" t="s">
-        <v>176</v>
-      </c>
-      <c r="K72" t="s">
-        <v>177</v>
+        <v>119</v>
       </c>
       <c r="L72" t="s">
-        <v>178</v>
+        <v>120</v>
       </c>
     </row>
     <row r="73" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J73" t="s">
-        <v>71</v>
-      </c>
-      <c r="K73" t="s">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="L73" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
     </row>
     <row r="74" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J74" t="s">
-        <v>105</v>
-      </c>
-      <c r="K74" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="L74" t="s">
-        <v>107</v>
+        <v>98</v>
+      </c>
+      <c r="M74" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="75" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J75" t="s">
-        <v>84</v>
-      </c>
-      <c r="K75" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="L75" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
     </row>
     <row r="76" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J76" t="s">
-        <v>126</v>
+        <v>161</v>
       </c>
       <c r="K76" t="s">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="L76" t="s">
-        <v>127</v>
-      </c>
-      <c r="M76" t="s">
-        <v>138</v>
+        <v>162</v>
       </c>
     </row>
     <row r="77" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J77" t="s">
-        <v>62</v>
-      </c>
-      <c r="K77" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="L77" t="s">
-        <v>63</v>
+        <v>110</v>
       </c>
     </row>
     <row r="78" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J78" t="s">
-        <v>23</v>
-      </c>
-      <c r="K78" t="s">
-        <v>24</v>
+        <v>111</v>
       </c>
       <c r="L78" t="s">
-        <v>25</v>
-      </c>
-      <c r="M78" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
     </row>
     <row r="79" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J79" t="s">
-        <v>74</v>
+        <v>163</v>
       </c>
       <c r="K79" t="s">
-        <v>75</v>
+        <v>165</v>
       </c>
       <c r="L79" t="s">
-        <v>76</v>
+        <v>164</v>
+      </c>
+      <c r="M79" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="80" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J80" t="s">
-        <v>228</v>
+        <v>66</v>
       </c>
       <c r="L80" t="s">
-        <v>229</v>
-      </c>
-      <c r="M80" t="s">
-        <v>230</v>
+        <v>67</v>
       </c>
     </row>
     <row r="81" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J81" t="s">
-        <v>142</v>
+        <v>54</v>
       </c>
       <c r="L81" t="s">
-        <v>143</v>
-      </c>
-      <c r="M81" t="s">
-        <v>144</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="82" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="J82" t="s">
+        <v>179</v>
+      </c>
+      <c r="K82" t="s">
+        <v>168</v>
+      </c>
+      <c r="L82" t="s">
+        <v>180</v>
+      </c>
+      <c r="M82" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="83" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="J83" t="s">
+        <v>80</v>
+      </c>
+      <c r="L83" t="s">
+        <v>81</v>
+      </c>
+      <c r="M83" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="84" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="J84" t="s">
+        <v>182</v>
+      </c>
+      <c r="K84" t="s">
+        <v>183</v>
+      </c>
+      <c r="L84" t="s">
+        <v>184</v>
+      </c>
+      <c r="M84" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="85" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="J85" t="s">
+        <v>40</v>
+      </c>
+      <c r="L85" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="86" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="J86" t="s">
+        <v>13</v>
+      </c>
+      <c r="L86" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="J87" t="s">
+        <v>46</v>
+      </c>
+      <c r="L87" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="88" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="J88" t="s">
+        <v>145</v>
+      </c>
+      <c r="L88" t="s">
+        <v>146</v>
+      </c>
+      <c r="M88" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="89" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="J89" t="s">
+        <v>89</v>
+      </c>
+      <c r="L89" t="s">
+        <v>90</v>
+      </c>
+      <c r="M89" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/Dictionary.xlsx
+++ b/Dictionary.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="252">
   <si>
     <t>Battery</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -722,10 +722,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>速報와 헷갈림</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>게임 내에서 직접 등장하지 않음. 후보</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -746,14 +742,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>서바이벌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고민중: 생존이면 생존 소총?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Teak</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -806,7 +794,243 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>림월드 낱말 번역사전 (15년 2월 7일)</t>
+    <t>Button-down Shirt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단추 달린 셔츠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>셔츠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천 단추 달린 셔츠 -&gt; 천 셔츠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>범주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>식물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>식물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메카노이드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부족</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용병</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부족</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sculpture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조각상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clarify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速報와 헷갈림 (步)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생존</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생존 소총</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Neurotic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불안증세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강박증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특성 감안</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Charge Lance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차지 랜스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초전자창 (발사기)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>림월드 낱말 번역사전 (15년 2월 10일)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -814,7 +1038,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -835,14 +1059,6 @@
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -875,14 +1091,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -903,11 +1116,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="표2" displayName="표2" ref="J5:M89" totalsRowShown="0">
-  <sortState ref="J6:M81">
-    <sortCondition ref="J6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="표2" displayName="표2" ref="I5:M93" totalsRowShown="0">
+  <sortState ref="I6:M90">
+    <sortCondition ref="I6:I90" customList="설정,건물,식물,동물,아이템,무기,의류,특성,외지인,부족,해적,용병,메카노이드,기타"/>
+    <sortCondition ref="J6:J90"/>
   </sortState>
-  <tableColumns count="4">
+  <tableColumns count="5">
+    <tableColumn id="5" name="범주"/>
     <tableColumn id="1" name="영문"/>
     <tableColumn id="2" name="전"/>
     <tableColumn id="3" name="현"/>
@@ -1180,15 +1395,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="J3:M89"/>
+  <dimension ref="I3:M93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="9" max="9" width="2" customWidth="1"/>
+    <col min="8" max="8" width="2" customWidth="1"/>
+    <col min="9" max="9" width="15.875" customWidth="1"/>
     <col min="10" max="10" width="24.125" customWidth="1"/>
     <col min="11" max="11" width="18" customWidth="1"/>
     <col min="12" max="12" width="17.875" customWidth="1"/>
@@ -1196,15 +1412,19 @@
     <col min="14" max="14" width="2.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="10:13" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="J3" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-    </row>
-    <row r="5" spans="10:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="9:13" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="I3" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="5" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I5" t="s">
+        <v>196</v>
+      </c>
       <c r="J5" t="s">
         <v>8</v>
       </c>
@@ -1218,7 +1438,10 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="10:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I6" t="s">
+        <v>210</v>
+      </c>
       <c r="J6" t="s">
         <v>129</v>
       </c>
@@ -1226,781 +1449,1101 @@
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="10:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I7" t="s">
+        <v>203</v>
+      </c>
       <c r="J7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I8" t="s">
+        <v>200</v>
+      </c>
+      <c r="J8" t="s">
+        <v>137</v>
+      </c>
+      <c r="L8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I9" t="s">
+        <v>203</v>
+      </c>
+      <c r="J9" t="s">
+        <v>172</v>
+      </c>
+      <c r="K9" t="s">
+        <v>165</v>
+      </c>
+      <c r="L9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="10" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I10" t="s">
+        <v>216</v>
+      </c>
+      <c r="J10" t="s">
+        <v>44</v>
+      </c>
+      <c r="L10" t="s">
+        <v>45</v>
+      </c>
+      <c r="M10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I11" t="s">
+        <v>216</v>
+      </c>
+      <c r="J11" t="s">
+        <v>58</v>
+      </c>
+      <c r="L11" t="s">
+        <v>59</v>
+      </c>
+      <c r="M11" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I12" t="s">
+        <v>204</v>
+      </c>
+      <c r="J12" t="s">
+        <v>2</v>
+      </c>
+      <c r="L12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I13" t="s">
+        <v>200</v>
+      </c>
+      <c r="J13" t="s">
+        <v>76</v>
+      </c>
+      <c r="L13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I14" t="s">
+        <v>198</v>
+      </c>
+      <c r="J14" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I15" t="s">
+        <v>203</v>
+      </c>
+      <c r="J15" t="s">
+        <v>68</v>
+      </c>
+      <c r="L15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I16" t="s">
+        <v>204</v>
+      </c>
+      <c r="J16" t="s">
+        <v>74</v>
+      </c>
+      <c r="L16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I17" t="s">
+        <v>204</v>
+      </c>
+      <c r="J17" t="s">
+        <v>72</v>
+      </c>
+      <c r="L17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I18" t="s">
+        <v>203</v>
+      </c>
+      <c r="J18" t="s">
+        <v>11</v>
+      </c>
+      <c r="L18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I19" t="s">
+        <v>233</v>
+      </c>
+      <c r="J19" t="s">
+        <v>234</v>
+      </c>
+      <c r="K19" t="s">
+        <v>235</v>
+      </c>
+      <c r="L19" t="s">
+        <v>236</v>
+      </c>
+      <c r="M19" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="20" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I20" t="s">
+        <v>230</v>
+      </c>
+      <c r="J20" t="s">
+        <v>66</v>
+      </c>
+      <c r="L20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I21" t="s">
+        <v>203</v>
+      </c>
+      <c r="J21" t="s">
+        <v>46</v>
+      </c>
+      <c r="L21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I22" t="s">
+        <v>212</v>
+      </c>
+      <c r="J22" t="s">
+        <v>93</v>
+      </c>
+      <c r="L22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I23" t="s">
+        <v>212</v>
+      </c>
+      <c r="J23" t="s">
+        <v>91</v>
+      </c>
+      <c r="L23" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I24" t="s">
+        <v>212</v>
+      </c>
+      <c r="J24" t="s">
+        <v>179</v>
+      </c>
+      <c r="K24" t="s">
+        <v>180</v>
+      </c>
+      <c r="L24" t="s">
+        <v>181</v>
+      </c>
+      <c r="M24" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="25" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I25" t="s">
+        <v>209</v>
+      </c>
+      <c r="J25" t="s">
+        <v>89</v>
+      </c>
+      <c r="L25" t="s">
+        <v>90</v>
+      </c>
+      <c r="M25" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="26" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I26" t="s">
+        <v>206</v>
+      </c>
+      <c r="J26" t="s">
+        <v>32</v>
+      </c>
+      <c r="L26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I27" t="s">
+        <v>206</v>
+      </c>
+      <c r="J27" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I28" t="s">
+        <v>206</v>
+      </c>
+      <c r="J28" t="s">
+        <v>28</v>
+      </c>
+      <c r="L28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I29" t="s">
+        <v>211</v>
+      </c>
+      <c r="J29" t="s">
         <v>63</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K29" t="s">
         <v>64</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L29" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J8" t="s">
-        <v>93</v>
-      </c>
-      <c r="L8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J9" t="s">
-        <v>125</v>
-      </c>
-      <c r="L9" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="10" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J10" t="s">
-        <v>0</v>
-      </c>
-      <c r="L10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J11" t="s">
-        <v>9</v>
-      </c>
-      <c r="L11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J12" t="s">
-        <v>130</v>
-      </c>
-      <c r="L12" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="13" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J13" t="s">
+    <row r="30" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I30" t="s">
+        <v>215</v>
+      </c>
+      <c r="J30" t="s">
         <v>19</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L30" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J14" t="s">
+    <row r="31" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I31" t="s">
+        <v>224</v>
+      </c>
+      <c r="J31" t="s">
+        <v>187</v>
+      </c>
+      <c r="K31" t="s">
+        <v>188</v>
+      </c>
+      <c r="L31" t="s">
+        <v>189</v>
+      </c>
+      <c r="M31" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="32" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I32" t="s">
+        <v>223</v>
+      </c>
+      <c r="J32" t="s">
+        <v>48</v>
+      </c>
+      <c r="L32" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I33" t="s">
+        <v>197</v>
+      </c>
+      <c r="J33" t="s">
+        <v>82</v>
+      </c>
+      <c r="L33" t="s">
+        <v>83</v>
+      </c>
+      <c r="M33" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I34" t="s">
+        <v>211</v>
+      </c>
+      <c r="J34" t="s">
+        <v>87</v>
+      </c>
+      <c r="L34" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I35" t="s">
+        <v>211</v>
+      </c>
+      <c r="J35" t="s">
+        <v>84</v>
+      </c>
+      <c r="L35" t="s">
+        <v>85</v>
+      </c>
+      <c r="M35" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="36" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I36" t="s">
+        <v>211</v>
+      </c>
+      <c r="J36" t="s">
+        <v>78</v>
+      </c>
+      <c r="L36" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I37" t="s">
+        <v>211</v>
+      </c>
+      <c r="J37" t="s">
+        <v>21</v>
+      </c>
+      <c r="L37" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I38" t="s">
+        <v>215</v>
+      </c>
+      <c r="J38" t="s">
+        <v>60</v>
+      </c>
+      <c r="L38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I39" t="s">
+        <v>211</v>
+      </c>
+      <c r="J39" t="s">
+        <v>17</v>
+      </c>
+      <c r="L39" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I40" t="s">
+        <v>197</v>
+      </c>
+      <c r="J40" t="s">
+        <v>80</v>
+      </c>
+      <c r="L40" t="s">
+        <v>81</v>
+      </c>
+      <c r="M40" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="41" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I41" t="s">
+        <v>207</v>
+      </c>
+      <c r="J41" t="s">
         <v>150</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L41" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="15" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J15" t="s">
-        <v>137</v>
-      </c>
-      <c r="L15" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="16" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J16" t="s">
-        <v>172</v>
-      </c>
-      <c r="K16" t="s">
-        <v>165</v>
-      </c>
-      <c r="L16" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="17" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J17" t="s">
-        <v>44</v>
-      </c>
-      <c r="L17" t="s">
-        <v>45</v>
-      </c>
-      <c r="M17" t="s">
+    <row r="42" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I42" t="s">
+        <v>218</v>
+      </c>
+      <c r="J42" t="s">
+        <v>101</v>
+      </c>
+      <c r="L42" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="43" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I43" t="s">
+        <v>246</v>
+      </c>
+      <c r="J43" t="s">
+        <v>247</v>
+      </c>
+      <c r="K43" t="s">
+        <v>248</v>
+      </c>
+      <c r="L43" t="s">
+        <v>250</v>
+      </c>
+      <c r="M43" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="44" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I44" t="s">
+        <v>199</v>
+      </c>
+      <c r="J44" t="s">
+        <v>105</v>
+      </c>
+      <c r="L44" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="45" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I45" t="s">
+        <v>207</v>
+      </c>
+      <c r="J45" t="s">
+        <v>107</v>
+      </c>
+      <c r="L45" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="46" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I46" t="s">
+        <v>207</v>
+      </c>
+      <c r="J46" t="s">
         <v>176</v>
-      </c>
-    </row>
-    <row r="18" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J18" t="s">
-        <v>58</v>
-      </c>
-      <c r="L18" t="s">
-        <v>59</v>
-      </c>
-      <c r="M18" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="19" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J19" t="s">
-        <v>34</v>
-      </c>
-      <c r="L19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J20" t="s">
-        <v>101</v>
-      </c>
-      <c r="L20" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="21" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J21" t="s">
-        <v>42</v>
-      </c>
-      <c r="L21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J22" t="s">
-        <v>26</v>
-      </c>
-      <c r="L22" t="s">
-        <v>24</v>
-      </c>
-      <c r="M22" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="23" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J23" t="s">
-        <v>6</v>
-      </c>
-      <c r="L23" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J24" t="s">
-        <v>15</v>
-      </c>
-      <c r="L24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J25" t="s">
-        <v>2</v>
-      </c>
-      <c r="L25" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J26" t="s">
-        <v>70</v>
-      </c>
-      <c r="L26" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J27" t="s">
-        <v>76</v>
-      </c>
-      <c r="L27" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="28" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J28" t="s">
-        <v>48</v>
-      </c>
-      <c r="L28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J29" t="s">
-        <v>190</v>
-      </c>
-      <c r="K29" t="s">
-        <v>191</v>
-      </c>
-      <c r="L29" t="s">
-        <v>192</v>
-      </c>
-      <c r="M29" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="30" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J30" t="s">
-        <v>4</v>
-      </c>
-      <c r="L30" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J31" t="s">
-        <v>82</v>
-      </c>
-      <c r="L31" t="s">
-        <v>83</v>
-      </c>
-      <c r="M31" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="32" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J32" t="s">
-        <v>105</v>
-      </c>
-      <c r="L32" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="33" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J33" t="s">
-        <v>36</v>
-      </c>
-      <c r="L33" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="34" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J34" t="s">
-        <v>95</v>
-      </c>
-      <c r="L34" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="35" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J35" t="s">
-        <v>62</v>
-      </c>
-      <c r="K35" t="s">
-        <v>194</v>
-      </c>
-      <c r="L35" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="36" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J36" t="s">
-        <v>32</v>
-      </c>
-      <c r="L36" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="37" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J37" t="s">
-        <v>68</v>
-      </c>
-      <c r="L37" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="38" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J38" t="s">
-        <v>127</v>
-      </c>
-      <c r="L38" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="39" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J39" t="s">
-        <v>156</v>
-      </c>
-      <c r="K39" t="s">
-        <v>171</v>
-      </c>
-      <c r="L39" t="s">
-        <v>157</v>
-      </c>
-      <c r="M39" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="40" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J40" t="s">
-        <v>107</v>
-      </c>
-      <c r="L40" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="41" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J41" t="s">
-        <v>139</v>
-      </c>
-      <c r="L41" t="s">
-        <v>140</v>
-      </c>
-      <c r="M41" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="42" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J42" t="s">
-        <v>52</v>
-      </c>
-      <c r="L42" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="43" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J43" t="s">
-        <v>132</v>
-      </c>
-      <c r="L43" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="44" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J44" t="s">
-        <v>30</v>
-      </c>
-      <c r="L44" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="45" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J45" t="s">
-        <v>25</v>
-      </c>
-      <c r="L45" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="46" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J46" t="s">
-        <v>177</v>
       </c>
       <c r="K46" t="s">
         <v>165</v>
       </c>
       <c r="L46" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="47" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I47" t="s">
+        <v>207</v>
+      </c>
+      <c r="J47" t="s">
+        <v>103</v>
+      </c>
+      <c r="L47" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="48" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I48" t="s">
+        <v>207</v>
+      </c>
+      <c r="J48" t="s">
+        <v>113</v>
+      </c>
+      <c r="L48" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="49" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I49" t="s">
+        <v>207</v>
+      </c>
+      <c r="J49" t="s">
+        <v>158</v>
+      </c>
+      <c r="K49" t="s">
+        <v>168</v>
+      </c>
+      <c r="L49" t="s">
+        <v>159</v>
+      </c>
+      <c r="M49" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="50" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I50" t="s">
+        <v>207</v>
+      </c>
+      <c r="J50" t="s">
+        <v>99</v>
+      </c>
+      <c r="L50" t="s">
+        <v>100</v>
+      </c>
+      <c r="M50" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="51" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I51" t="s">
+        <v>207</v>
+      </c>
+      <c r="J51" t="s">
+        <v>97</v>
+      </c>
+      <c r="L51" t="s">
+        <v>98</v>
+      </c>
+      <c r="M51" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="52" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I52" t="s">
+        <v>202</v>
+      </c>
+      <c r="J52" t="s">
+        <v>109</v>
+      </c>
+      <c r="L52" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="53" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I53" t="s">
+        <v>207</v>
+      </c>
+      <c r="J53" t="s">
+        <v>111</v>
+      </c>
+      <c r="L53" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="54" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I54" t="s">
+        <v>202</v>
+      </c>
+      <c r="J54" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="47" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J47" t="s">
-        <v>87</v>
-      </c>
-      <c r="L47" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="48" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J48" t="s">
+      <c r="K54" t="s">
+        <v>168</v>
+      </c>
+      <c r="L54" t="s">
+        <v>239</v>
+      </c>
+      <c r="M54" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="55" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I55" t="s">
+        <v>217</v>
+      </c>
+      <c r="J55" t="s">
+        <v>192</v>
+      </c>
+      <c r="K55" t="s">
+        <v>193</v>
+      </c>
+      <c r="L55" t="s">
+        <v>194</v>
+      </c>
+      <c r="M55" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="56" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I56" t="s">
+        <v>201</v>
+      </c>
+      <c r="J56" t="s">
+        <v>62</v>
+      </c>
+      <c r="K56" t="s">
+        <v>191</v>
+      </c>
+      <c r="L56" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="57" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I57" t="s">
+        <v>229</v>
+      </c>
+      <c r="J57" t="s">
+        <v>161</v>
+      </c>
+      <c r="K57" t="s">
+        <v>165</v>
+      </c>
+      <c r="L57" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="58" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I58" t="s">
+        <v>226</v>
+      </c>
+      <c r="J58" t="s">
+        <v>156</v>
+      </c>
+      <c r="K58" t="s">
+        <v>171</v>
+      </c>
+      <c r="L58" t="s">
+        <v>157</v>
+      </c>
+      <c r="M58" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="59" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I59" t="s">
+        <v>226</v>
+      </c>
+      <c r="J59" t="s">
+        <v>121</v>
+      </c>
+      <c r="L59" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="60" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I60" t="s">
+        <v>226</v>
+      </c>
+      <c r="J60" t="s">
+        <v>117</v>
+      </c>
+      <c r="L60" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="61" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I61" t="s">
+        <v>226</v>
+      </c>
+      <c r="J61" t="s">
+        <v>119</v>
+      </c>
+      <c r="L61" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="62" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I62" t="s">
+        <v>241</v>
+      </c>
+      <c r="J62" t="s">
+        <v>242</v>
+      </c>
+      <c r="K62" t="s">
+        <v>243</v>
+      </c>
+      <c r="L62" t="s">
+        <v>244</v>
+      </c>
+      <c r="M62" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="63" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I63" t="s">
+        <v>220</v>
+      </c>
+      <c r="J63" t="s">
+        <v>42</v>
+      </c>
+      <c r="L63" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="64" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I64" t="s">
+        <v>232</v>
+      </c>
+      <c r="J64" t="s">
+        <v>13</v>
+      </c>
+      <c r="L64" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I65" t="s">
+        <v>205</v>
+      </c>
+      <c r="J65" t="s">
+        <v>36</v>
+      </c>
+      <c r="L65" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="66" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I66" t="s">
+        <v>228</v>
+      </c>
+      <c r="J66" t="s">
+        <v>38</v>
+      </c>
+      <c r="L66" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="67" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I67" t="s">
+        <v>231</v>
+      </c>
+      <c r="J67" t="s">
+        <v>40</v>
+      </c>
+      <c r="L67" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="68" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I68" t="s">
+        <v>227</v>
+      </c>
+      <c r="J68" t="s">
+        <v>154</v>
+      </c>
+      <c r="K68" t="s">
+        <v>165</v>
+      </c>
+      <c r="L68" t="s">
+        <v>155</v>
+      </c>
+      <c r="M68" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="69" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I69" t="s">
+        <v>219</v>
+      </c>
+      <c r="J69" t="s">
+        <v>34</v>
+      </c>
+      <c r="L69" t="s">
+        <v>35</v>
+      </c>
+      <c r="M69" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="70" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I70" t="s">
+        <v>213</v>
+      </c>
+      <c r="J70" t="s">
+        <v>125</v>
+      </c>
+      <c r="L70" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="71" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I71" t="s">
+        <v>214</v>
+      </c>
+      <c r="J71" t="s">
+        <v>9</v>
+      </c>
+      <c r="L71" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I72" t="s">
+        <v>208</v>
+      </c>
+      <c r="J72" t="s">
+        <v>130</v>
+      </c>
+      <c r="L72" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="73" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I73" t="s">
+        <v>208</v>
+      </c>
+      <c r="J73" t="s">
+        <v>26</v>
+      </c>
+      <c r="L73" t="s">
+        <v>24</v>
+      </c>
+      <c r="M73" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="74" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I74" t="s">
+        <v>221</v>
+      </c>
+      <c r="J74" t="s">
+        <v>6</v>
+      </c>
+      <c r="L74" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I75" t="s">
+        <v>222</v>
+      </c>
+      <c r="J75" t="s">
+        <v>15</v>
+      </c>
+      <c r="L75" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I76" t="s">
+        <v>208</v>
+      </c>
+      <c r="J76" t="s">
+        <v>70</v>
+      </c>
+      <c r="L76" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="77" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I77" t="s">
+        <v>225</v>
+      </c>
+      <c r="J77" t="s">
+        <v>95</v>
+      </c>
+      <c r="L77" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="78" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I78" t="s">
+        <v>213</v>
+      </c>
+      <c r="J78" t="s">
+        <v>127</v>
+      </c>
+      <c r="L78" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="79" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I79" t="s">
+        <v>208</v>
+      </c>
+      <c r="J79" t="s">
+        <v>139</v>
+      </c>
+      <c r="L79" t="s">
+        <v>140</v>
+      </c>
+      <c r="M79" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="80" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I80" t="s">
+        <v>213</v>
+      </c>
+      <c r="J80" t="s">
+        <v>52</v>
+      </c>
+      <c r="L80" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="81" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I81" t="s">
+        <v>213</v>
+      </c>
+      <c r="J81" t="s">
+        <v>132</v>
+      </c>
+      <c r="L81" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="82" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I82" t="s">
+        <v>213</v>
+      </c>
+      <c r="J82" t="s">
+        <v>25</v>
+      </c>
+      <c r="L82" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="83" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I83" t="s">
+        <v>213</v>
+      </c>
+      <c r="J83" t="s">
         <v>142</v>
       </c>
-      <c r="L48" t="s">
+      <c r="L83" t="s">
         <v>143</v>
       </c>
-      <c r="M48" t="s">
+      <c r="M83" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="49" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J49" t="s">
-        <v>74</v>
-      </c>
-      <c r="L49" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="50" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J50" t="s">
-        <v>84</v>
-      </c>
-      <c r="L50" t="s">
-        <v>85</v>
-      </c>
-      <c r="M50" t="s">
+    <row r="84" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I84" t="s">
+        <v>221</v>
+      </c>
+      <c r="J84" t="s">
+        <v>134</v>
+      </c>
+      <c r="L84" t="s">
+        <v>135</v>
+      </c>
+      <c r="M84" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="51" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J51" t="s">
-        <v>103</v>
-      </c>
-      <c r="L51" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="52" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J52" t="s">
-        <v>121</v>
-      </c>
-      <c r="L52" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="53" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J53" t="s">
-        <v>113</v>
-      </c>
-      <c r="L53" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="54" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J54" t="s">
-        <v>134</v>
-      </c>
-      <c r="L54" t="s">
-        <v>135</v>
-      </c>
-      <c r="M54" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="55" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J55" t="s">
+    <row r="85" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I85" t="s">
+        <v>213</v>
+      </c>
+      <c r="J85" t="s">
         <v>148</v>
       </c>
-      <c r="L55" t="s">
+      <c r="L85" t="s">
         <v>149</v>
       </c>
-      <c r="M55" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="56" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J56" t="s">
-        <v>28</v>
-      </c>
-      <c r="L56" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="57" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J57" t="s">
+      <c r="M85" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="86" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I86" t="s">
+        <v>213</v>
+      </c>
+      <c r="J86" t="s">
         <v>123</v>
       </c>
-      <c r="L57" t="s">
+      <c r="L86" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="58" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J58" t="s">
-        <v>154</v>
-      </c>
-      <c r="K58" t="s">
-        <v>165</v>
-      </c>
-      <c r="L58" t="s">
-        <v>155</v>
-      </c>
-      <c r="M58" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="59" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J59" t="s">
+    <row r="87" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I87" t="s">
+        <v>213</v>
+      </c>
+      <c r="J87" t="s">
         <v>147</v>
       </c>
-      <c r="L59" t="s">
+      <c r="L87" t="s">
         <v>152</v>
       </c>
-      <c r="M59" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="60" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J60" t="s">
+      <c r="M87" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="88" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I88" t="s">
+        <v>213</v>
+      </c>
+      <c r="J88" t="s">
         <v>50</v>
       </c>
-      <c r="L60" t="s">
+      <c r="L88" t="s">
         <v>51</v>
-      </c>
-      <c r="M60" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="61" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J61" t="s">
-        <v>78</v>
-      </c>
-      <c r="L61" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="62" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J62" t="s">
-        <v>72</v>
-      </c>
-      <c r="L62" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="63" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J63" t="s">
-        <v>11</v>
-      </c>
-      <c r="L63" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="64" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J64" t="s">
-        <v>158</v>
-      </c>
-      <c r="K64" t="s">
-        <v>168</v>
-      </c>
-      <c r="L64" t="s">
-        <v>159</v>
-      </c>
-      <c r="M64" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="65" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J65" t="s">
-        <v>21</v>
-      </c>
-      <c r="L65" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="66" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J66" t="s">
-        <v>56</v>
-      </c>
-      <c r="L66" t="s">
-        <v>57</v>
-      </c>
-      <c r="M66" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="67" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J67" t="s">
-        <v>91</v>
-      </c>
-      <c r="L67" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="68" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J68" t="s">
-        <v>99</v>
-      </c>
-      <c r="L68" t="s">
-        <v>100</v>
-      </c>
-      <c r="M68" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="69" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J69" t="s">
-        <v>60</v>
-      </c>
-      <c r="L69" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="70" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J70" t="s">
-        <v>17</v>
-      </c>
-      <c r="L70" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="71" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J71" t="s">
-        <v>117</v>
-      </c>
-      <c r="L71" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="72" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J72" t="s">
-        <v>119</v>
-      </c>
-      <c r="L72" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="73" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J73" t="s">
-        <v>115</v>
-      </c>
-      <c r="L73" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="74" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J74" t="s">
-        <v>97</v>
-      </c>
-      <c r="L74" t="s">
-        <v>98</v>
-      </c>
-      <c r="M74" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="75" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J75" t="s">
-        <v>38</v>
-      </c>
-      <c r="L75" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="76" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J76" t="s">
-        <v>161</v>
-      </c>
-      <c r="K76" t="s">
-        <v>165</v>
-      </c>
-      <c r="L76" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="77" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J77" t="s">
-        <v>109</v>
-      </c>
-      <c r="L77" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="78" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J78" t="s">
-        <v>111</v>
-      </c>
-      <c r="L78" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="79" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J79" t="s">
-        <v>163</v>
-      </c>
-      <c r="K79" t="s">
-        <v>165</v>
-      </c>
-      <c r="L79" t="s">
-        <v>164</v>
-      </c>
-      <c r="M79" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="80" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J80" t="s">
-        <v>66</v>
-      </c>
-      <c r="L80" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="81" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J81" t="s">
-        <v>54</v>
-      </c>
-      <c r="L81" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="82" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J82" t="s">
-        <v>179</v>
-      </c>
-      <c r="K82" t="s">
-        <v>168</v>
-      </c>
-      <c r="L82" t="s">
-        <v>180</v>
-      </c>
-      <c r="M82" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="83" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J83" t="s">
-        <v>80</v>
-      </c>
-      <c r="L83" t="s">
-        <v>81</v>
-      </c>
-      <c r="M83" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="84" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J84" t="s">
-        <v>182</v>
-      </c>
-      <c r="K84" t="s">
-        <v>183</v>
-      </c>
-      <c r="L84" t="s">
-        <v>184</v>
-      </c>
-      <c r="M84" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="85" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J85" t="s">
-        <v>40</v>
-      </c>
-      <c r="L85" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="86" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J86" t="s">
-        <v>13</v>
-      </c>
-      <c r="L86" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="87" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J87" t="s">
-        <v>46</v>
-      </c>
-      <c r="L87" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="88" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J88" t="s">
-        <v>145</v>
-      </c>
-      <c r="L88" t="s">
-        <v>146</v>
       </c>
       <c r="M88" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="89" spans="10:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I89" t="s">
+        <v>213</v>
+      </c>
       <c r="J89" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="L89" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="M89" t="s">
-        <v>187</v>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="90" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I90" t="s">
+        <v>213</v>
+      </c>
+      <c r="J90" t="s">
+        <v>115</v>
+      </c>
+      <c r="L90" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="91" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I91" t="s">
+        <v>221</v>
+      </c>
+      <c r="J91" t="s">
+        <v>163</v>
+      </c>
+      <c r="K91" t="s">
+        <v>165</v>
+      </c>
+      <c r="L91" t="s">
+        <v>164</v>
+      </c>
+      <c r="M91" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="92" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I92" t="s">
+        <v>221</v>
+      </c>
+      <c r="J92" t="s">
+        <v>54</v>
+      </c>
+      <c r="L92" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="93" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I93" t="s">
+        <v>221</v>
+      </c>
+      <c r="J93" t="s">
+        <v>145</v>
+      </c>
+      <c r="L93" t="s">
+        <v>146</v>
+      </c>
+      <c r="M93" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="I3:M3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Dictionary.xlsx
+++ b/Dictionary.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="278">
   <si>
     <t>Battery</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1031,6 +1031,110 @@
   </si>
   <si>
     <t>림월드 낱말 번역사전 (15년 2월 10일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NameBanks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slicer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Alpha 9)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NameBanks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crusher</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분쇄자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NameBanks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jacker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밤사냥꾼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NameBanks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Facebeater</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Alpha 9)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼굴파괴자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도살자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NameBanks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cutter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Splitter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분해자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Banger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shanker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>칼잡이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주먹꾼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alligator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Alpha 9)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>민물악어</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1116,7 +1220,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="표2" displayName="표2" ref="I5:M93" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="표2" displayName="표2" ref="I5:M102" totalsRowShown="0">
   <sortState ref="I6:M90">
     <sortCondition ref="I6:I90" customList="설정,건물,식물,동물,아이템,무기,의류,특성,외지인,부족,해적,용병,메카노이드,기타"/>
     <sortCondition ref="J6:J90"/>
@@ -1395,10 +1499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="I3:M93"/>
+  <dimension ref="I3:M102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="M94" sqref="M94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2541,6 +2645,132 @@
         <v>174</v>
       </c>
     </row>
+    <row r="94" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I94" t="s">
+        <v>252</v>
+      </c>
+      <c r="J94" t="s">
+        <v>253</v>
+      </c>
+      <c r="K94" t="s">
+        <v>254</v>
+      </c>
+      <c r="L94" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="95" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I95" t="s">
+        <v>255</v>
+      </c>
+      <c r="J95" t="s">
+        <v>256</v>
+      </c>
+      <c r="K95" t="s">
+        <v>165</v>
+      </c>
+      <c r="L95" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="96" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I96" t="s">
+        <v>258</v>
+      </c>
+      <c r="J96" t="s">
+        <v>259</v>
+      </c>
+      <c r="K96" t="s">
+        <v>165</v>
+      </c>
+      <c r="L96" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="97" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I97" t="s">
+        <v>261</v>
+      </c>
+      <c r="J97" t="s">
+        <v>262</v>
+      </c>
+      <c r="K97" t="s">
+        <v>263</v>
+      </c>
+      <c r="L97" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="98" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I98" t="s">
+        <v>266</v>
+      </c>
+      <c r="J98" t="s">
+        <v>267</v>
+      </c>
+      <c r="K98" t="s">
+        <v>165</v>
+      </c>
+      <c r="L98" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="99" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I99" t="s">
+        <v>266</v>
+      </c>
+      <c r="J99" t="s">
+        <v>268</v>
+      </c>
+      <c r="K99" t="s">
+        <v>263</v>
+      </c>
+      <c r="L99" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="100" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I100" t="s">
+        <v>258</v>
+      </c>
+      <c r="J100" t="s">
+        <v>270</v>
+      </c>
+      <c r="K100" t="s">
+        <v>263</v>
+      </c>
+      <c r="L100" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="101" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I101" t="s">
+        <v>266</v>
+      </c>
+      <c r="J101" t="s">
+        <v>271</v>
+      </c>
+      <c r="K101" t="s">
+        <v>165</v>
+      </c>
+      <c r="L101" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="102" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I102" t="s">
+        <v>258</v>
+      </c>
+      <c r="J102" t="s">
+        <v>275</v>
+      </c>
+      <c r="K102" t="s">
+        <v>276</v>
+      </c>
+      <c r="L102" t="s">
+        <v>277</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="I3:M3"/>

--- a/Dictionary.xlsx
+++ b/Dictionary.xlsx
@@ -1030,10 +1030,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>림월드 낱말 번역사전 (15년 2월 10일)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NameBanks</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1135,6 +1131,10 @@
   </si>
   <si>
     <t>민물악어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>림월드 낱말 번역사전 (15년 2월 12일)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1221,9 +1221,10 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="표2" displayName="표2" ref="I5:M102" totalsRowShown="0">
-  <sortState ref="I6:M90">
-    <sortCondition ref="I6:I90" customList="설정,건물,식물,동물,아이템,무기,의류,특성,외지인,부족,해적,용병,메카노이드,기타"/>
-    <sortCondition ref="J6:J90"/>
+  <sortState ref="I6:M102">
+    <sortCondition ref="I6:I102" customList="설정,건물,식물,동물,아이템,무기,의류,특성,외지인,부족,해적,용병,메카노이드,기타,NameBanks"/>
+    <sortCondition ref="J6:J102"/>
+    <sortCondition ref="L6:L102"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="5" name="범주"/>
@@ -1501,8 +1502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="I3:M102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="M94" sqref="M94"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1518,7 +1519,7 @@
   <sheetData>
     <row r="3" spans="9:13" ht="26.25" x14ac:dyDescent="0.3">
       <c r="I3" s="1" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -2225,13 +2226,19 @@
     </row>
     <row r="60" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I60" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="J60" t="s">
-        <v>117</v>
+        <v>242</v>
+      </c>
+      <c r="K60" t="s">
+        <v>243</v>
       </c>
       <c r="L60" t="s">
-        <v>118</v>
+        <v>244</v>
+      </c>
+      <c r="M60" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="61" spans="9:13" x14ac:dyDescent="0.3">
@@ -2239,27 +2246,21 @@
         <v>226</v>
       </c>
       <c r="J61" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L61" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="62" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I62" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="J62" t="s">
-        <v>242</v>
-      </c>
-      <c r="K62" t="s">
-        <v>243</v>
+        <v>119</v>
       </c>
       <c r="L62" t="s">
-        <v>244</v>
-      </c>
-      <c r="M62" t="s">
-        <v>245</v>
+        <v>120</v>
       </c>
     </row>
     <row r="63" spans="9:13" x14ac:dyDescent="0.3">
@@ -2647,128 +2648,128 @@
     </row>
     <row r="94" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I94" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="J94" t="s">
-        <v>253</v>
+        <v>274</v>
       </c>
       <c r="K94" t="s">
-        <v>254</v>
+        <v>275</v>
       </c>
       <c r="L94" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
     </row>
     <row r="95" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I95" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="J95" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="K95" t="s">
-        <v>165</v>
+        <v>262</v>
       </c>
       <c r="L95" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
     </row>
     <row r="96" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I96" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="J96" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="K96" t="s">
         <v>165</v>
       </c>
       <c r="L96" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="97" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I97" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="J97" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="K97" t="s">
-        <v>263</v>
+        <v>165</v>
       </c>
       <c r="L97" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
     </row>
     <row r="98" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I98" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="J98" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K98" t="s">
-        <v>165</v>
+        <v>262</v>
       </c>
       <c r="L98" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
     </row>
     <row r="99" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I99" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="J99" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="K99" t="s">
-        <v>263</v>
+        <v>165</v>
       </c>
       <c r="L99" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
     </row>
     <row r="100" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I100" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="J100" t="s">
         <v>270</v>
       </c>
       <c r="K100" t="s">
-        <v>263</v>
+        <v>165</v>
       </c>
       <c r="L100" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="101" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I101" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="J101" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="K101" t="s">
-        <v>165</v>
+        <v>253</v>
       </c>
       <c r="L101" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
     </row>
     <row r="102" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I102" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="J102" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="K102" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="L102" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>

--- a/Dictionary.xlsx
+++ b/Dictionary.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="279">
   <si>
     <t>Battery</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -218,923 +218,927 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>핵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Multiplier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Global</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Storyteller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이야기꾼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Phoebe Basebuilder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포이베 베이스빌더</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Carpet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양탄자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Power Armor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강화갑옷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Duster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI Persona</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인공지능 칩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인공인격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Standing Lamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스탠드 조명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equipment Rack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비 받침대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compacted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>압축된</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nutrient Paste Dispenser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영양반죽 배급기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hopper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>깔대기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cook Stove</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조리용 스토브</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Neurotrainer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신경훈련기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Synthread</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>합성타래</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Devilstrand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>악마가닥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hyperweave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초매듭 옷감</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Devil + Strand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Herbal Medicine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>약초 추출물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xerigium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혈기초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pincushion Cactus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바늘겨레 선인장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Astragalus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자운영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drop Pod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낙하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rifle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소총</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pistol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>권총</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Charge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>충전식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inferno Cannon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지옥불 대포</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Doomsday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최후의 날</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gladius</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보병검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shiv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Short Bow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단궁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long Bow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장궁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Psychic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정신적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prosthophile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개조광</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prosthophobe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개조혐오</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jogger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조깅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mental Break</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정신이상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Faction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adaptive Tutor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Biome</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Goodwill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우호도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ludeonicrous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>터무니 없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반응형 도우미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blueprint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청사진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Glitterworld</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>번화계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>번화(Glitter) + 계(System)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>군락</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hiveworld = 군락계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Urbworld</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조밀계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Midworld</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Medival world</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중세계?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blaster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작열총</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중간계?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바람막이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mercenary Slasher</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용병 학살자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fast walker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빠른 걸음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PDW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인 방어 화기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그냥 PDW로 하는 것도?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보호막</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Steel Slag Chunk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>커다란 강철 파편</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Alpha 9)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Alpha 9)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선봉장에서 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>커다란 금속 파편에서 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brew</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 내에서 직접 등장하지 않음. 후보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음번 사전에서 제외</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heavy SMG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중기관단총</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Survival</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Teak</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Alpha 9)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>티크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hyper- + Weave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S(X)erum + -ium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Synth- + Thread</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ludicrous + Ludeon Studio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cloth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옷감</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옷감 바지 -&gt; 천 바지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더스터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button-down Shirt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단추 달린 셔츠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>셔츠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천 단추 달린 셔츠 -&gt; 천 셔츠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>범주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>식물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>식물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메카노이드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부족</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용병</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부족</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sculpture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조각상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clarify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速報와 헷갈림 (步)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생존</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Neurotic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불안증세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강박증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특성 감안</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Charge Lance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차지 랜스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초전자창 (발사기)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NameBanks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slicer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Alpha 9)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NameBanks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crusher</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분쇄자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NameBanks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jacker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밤사냥꾼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NameBanks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Facebeater</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Alpha 9)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼굴파괴자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도살자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NameBanks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cutter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Splitter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분해자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Banger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shanker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>칼잡이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주먹꾼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alligator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Alpha 9)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>민물악어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>림월드 낱말 번역사전 (15년 2월 12일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Core</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>핵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Multiplier</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>계수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Global</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전역</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Storyteller</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이야기꾼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Phoebe Basebuilder</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포이베 베이스빌더</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Carpet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>양탄자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Power Armor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강화갑옷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Duster</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AI Persona</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인공지능 칩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인공인격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Standing Lamp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스탠드 조명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Equipment Rack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장비 받침대</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Compacted</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>압축된</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nutrient Paste Dispenser</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영양반죽 배급기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hopper</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>깔대기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cook Stove</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조리용 스토브</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Neurotrainer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신경훈련기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Synthread</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>합성타래</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Devilstrand</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>악마가닥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hyperweave</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>초매듭 옷감</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Devil + Strand</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Herbal Medicine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>약초 추출물</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Xerigium</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>혈기초</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pincushion Cactus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바늘겨레 선인장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Astragalus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자운영</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Drop Pod</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>낙하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rifle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소총</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pistol</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>권총</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Charge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>충전식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Inferno Cannon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지옥불 대포</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Doomsday</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최후의 날</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gladius</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보병검</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shiv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>단도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Short Bow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>단궁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Long Bow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장궁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Psychic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정신적</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prosthophile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개조광</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prosthophobe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개조혐오</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jogger</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조깅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mental Break</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정신이상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Base</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Faction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Adaptive Tutor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Biome</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기후</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Goodwill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우호도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ludeonicrous</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>터무니 없음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>반응형 도우미</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Blueprint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>청사진</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Glitterworld</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>번화계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>번화(Glitter) + 계(System)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hive</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>군락</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hiveworld = 군락계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Urbworld</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조밀계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Midworld</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Medival world</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중세계?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Blaster</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>작열총</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중간계?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바람막이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mercenary Slasher</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>용병 학살자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fast walker</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>빠른 걸음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PDW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개인 방어 화기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그냥 PDW로 하는 것도?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shield</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보호막</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Steel Slag Chunk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>커다란 강철 파편</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(Alpha 9)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(Alpha 9)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선봉장에서 변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>커다란 금속 파편에서 변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>속보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Brew</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>양조</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게임 내에서 직접 등장하지 않음. 후보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다음번 사전에서 제외</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Heavy SMG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중기관단총</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Survival</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Teak</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(Alpha 9)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>티크</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나무 이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hyper- + Weave</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S(X)erum + -ium</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Synth- + Thread</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ludicrous + Ludeon Studio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cloth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>옷감</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>천</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>옷감 바지 -&gt; 천 바지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>더스터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Button-down Shirt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>단추 달린 셔츠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>셔츠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>천 단추 달린 셔츠 -&gt; 천 셔츠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>범주</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>건물</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>건물</t>
+    <t>생존소총</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>의류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>건물</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>건물</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해적</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동물</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기타</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>식물</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>설정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>식물</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기타</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기타</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>건물</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>의류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메카노이드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부족</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기타</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기타</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기타</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>특성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>용병</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해적</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>의류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>건물</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해적</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부족</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>건물</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sculpture</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조각</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조각상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>clarify</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>速報와 헷갈림 (步)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>생존</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>생존 소총</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>특성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Neurotic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>불안증세</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강박증</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>특성 감안</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Charge Lance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>차지 랜스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>의역</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>초전자창 (발사기)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NameBanks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Slicer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(Alpha 9)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NameBanks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Crusher</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>분쇄자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NameBanks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jacker</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>밤사냥꾼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NameBanks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Facebeater</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(Alpha 9)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>얼굴파괴자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도살자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NameBanks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cutter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Splitter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>분해자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Banger</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shanker</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>칼잡이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>백정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주먹꾼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alligator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(Alpha 9)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>민물악어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>림월드 낱말 번역사전 (15년 2월 12일)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1502,8 +1506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="I3:M102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K56" sqref="K56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1519,7 +1523,7 @@
   <sheetData>
     <row r="3" spans="9:13" ht="26.25" x14ac:dyDescent="0.3">
       <c r="I3" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -1528,16 +1532,16 @@
     </row>
     <row r="5" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J5" t="s">
         <v>8</v>
       </c>
       <c r="K5" t="s">
+        <v>165</v>
+      </c>
+      <c r="L5" t="s">
         <v>166</v>
-      </c>
-      <c r="L5" t="s">
-        <v>167</v>
       </c>
       <c r="M5" t="s">
         <v>27</v>
@@ -1545,18 +1549,18 @@
     </row>
     <row r="6" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J7" t="s">
         <v>0</v>
@@ -1567,32 +1571,32 @@
     </row>
     <row r="8" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J8" t="s">
+        <v>136</v>
+      </c>
+      <c r="L8" t="s">
         <v>137</v>
-      </c>
-      <c r="L8" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="9" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J9" t="s">
+        <v>171</v>
+      </c>
+      <c r="K9" t="s">
+        <v>164</v>
+      </c>
+      <c r="L9" t="s">
         <v>172</v>
-      </c>
-      <c r="K9" t="s">
-        <v>165</v>
-      </c>
-      <c r="L9" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="10" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J10" t="s">
         <v>44</v>
@@ -1601,26 +1605,26 @@
         <v>45</v>
       </c>
       <c r="M10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L11" t="s">
         <v>58</v>
       </c>
-      <c r="L11" t="s">
-        <v>59</v>
-      </c>
       <c r="M11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J12" t="s">
         <v>2</v>
@@ -1631,18 +1635,18 @@
     </row>
     <row r="13" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J13" t="s">
+        <v>75</v>
+      </c>
+      <c r="L13" t="s">
         <v>76</v>
-      </c>
-      <c r="L13" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J14" t="s">
         <v>4</v>
@@ -1653,40 +1657,40 @@
     </row>
     <row r="15" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J15" t="s">
+        <v>67</v>
+      </c>
+      <c r="L15" t="s">
         <v>68</v>
-      </c>
-      <c r="L15" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="16" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J16" t="s">
+        <v>73</v>
+      </c>
+      <c r="L16" t="s">
         <v>74</v>
-      </c>
-      <c r="L16" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="17" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J17" t="s">
+        <v>71</v>
+      </c>
+      <c r="L17" t="s">
         <v>72</v>
-      </c>
-      <c r="L17" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="18" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -1697,35 +1701,35 @@
     </row>
     <row r="19" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I19" t="s">
+        <v>232</v>
+      </c>
+      <c r="J19" t="s">
         <v>233</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>234</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>235</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="s">
         <v>236</v>
-      </c>
-      <c r="M19" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="20" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J20" t="s">
+        <v>65</v>
+      </c>
+      <c r="L20" t="s">
         <v>66</v>
-      </c>
-      <c r="L20" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="21" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J21" t="s">
         <v>46</v>
@@ -1736,60 +1740,60 @@
     </row>
     <row r="22" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I22" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J22" t="s">
+        <v>92</v>
+      </c>
+      <c r="L22" t="s">
         <v>93</v>
-      </c>
-      <c r="L22" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="23" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J23" t="s">
+        <v>90</v>
+      </c>
+      <c r="L23" t="s">
         <v>91</v>
-      </c>
-      <c r="L23" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="24" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I24" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J24" t="s">
+        <v>178</v>
+      </c>
+      <c r="K24" t="s">
         <v>179</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>180</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" t="s">
         <v>181</v>
-      </c>
-      <c r="M24" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="25" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I25" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J25" t="s">
+        <v>88</v>
+      </c>
+      <c r="L25" t="s">
         <v>89</v>
       </c>
-      <c r="L25" t="s">
-        <v>90</v>
-      </c>
       <c r="M25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I26" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J26" t="s">
         <v>32</v>
@@ -1800,7 +1804,7 @@
     </row>
     <row r="27" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I27" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J27" t="s">
         <v>30</v>
@@ -1811,7 +1815,7 @@
     </row>
     <row r="28" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I28" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J28" t="s">
         <v>28</v>
@@ -1822,21 +1826,21 @@
     </row>
     <row r="29" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I29" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J29" t="s">
+        <v>62</v>
+      </c>
+      <c r="K29" t="s">
         <v>63</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>64</v>
-      </c>
-      <c r="L29" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="30" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I30" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J30" t="s">
         <v>19</v>
@@ -1847,85 +1851,85 @@
     </row>
     <row r="31" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I31" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J31" t="s">
+        <v>186</v>
+      </c>
+      <c r="K31" t="s">
         <v>187</v>
       </c>
-      <c r="K31" t="s">
+      <c r="L31" t="s">
         <v>188</v>
       </c>
-      <c r="L31" t="s">
+      <c r="M31" t="s">
         <v>189</v>
-      </c>
-      <c r="M31" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="32" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I32" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J32" t="s">
+        <v>276</v>
+      </c>
+      <c r="L32" t="s">
         <v>48</v>
-      </c>
-      <c r="L32" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="33" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I33" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J33" t="s">
+        <v>81</v>
+      </c>
+      <c r="L33" t="s">
         <v>82</v>
       </c>
-      <c r="L33" t="s">
-        <v>83</v>
-      </c>
       <c r="M33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I34" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J34" t="s">
+        <v>86</v>
+      </c>
+      <c r="L34" t="s">
         <v>87</v>
-      </c>
-      <c r="L34" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="35" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I35" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J35" t="s">
+        <v>83</v>
+      </c>
+      <c r="L35" t="s">
         <v>84</v>
       </c>
-      <c r="L35" t="s">
-        <v>85</v>
-      </c>
       <c r="M35" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="36" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I36" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J36" t="s">
+        <v>77</v>
+      </c>
+      <c r="L36" t="s">
         <v>78</v>
-      </c>
-      <c r="L36" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="37" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I37" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J37" t="s">
         <v>21</v>
@@ -1936,336 +1940,336 @@
     </row>
     <row r="38" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I38" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="J38" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="L38" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I39" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="J39" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="L39" t="s">
-        <v>18</v>
+        <v>80</v>
+      </c>
+      <c r="M39" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="40" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I40" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="J40" t="s">
-        <v>80</v>
+        <v>149</v>
       </c>
       <c r="L40" t="s">
-        <v>81</v>
-      </c>
-      <c r="M40" t="s">
-        <v>185</v>
+        <v>150</v>
       </c>
     </row>
     <row r="41" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I41" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="J41" t="s">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="L41" t="s">
-        <v>151</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I42" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="J42" t="s">
-        <v>101</v>
+        <v>245</v>
+      </c>
+      <c r="K42" t="s">
+        <v>246</v>
       </c>
       <c r="L42" t="s">
-        <v>102</v>
+        <v>248</v>
+      </c>
+      <c r="M42" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="43" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I43" t="s">
-        <v>246</v>
+        <v>198</v>
       </c>
       <c r="J43" t="s">
-        <v>247</v>
-      </c>
-      <c r="K43" t="s">
-        <v>248</v>
+        <v>104</v>
       </c>
       <c r="L43" t="s">
-        <v>250</v>
-      </c>
-      <c r="M43" t="s">
-        <v>249</v>
+        <v>105</v>
       </c>
     </row>
     <row r="44" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I44" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="J44" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L44" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I45" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J45" t="s">
-        <v>107</v>
+        <v>175</v>
+      </c>
+      <c r="K45" t="s">
+        <v>164</v>
       </c>
       <c r="L45" t="s">
-        <v>108</v>
+        <v>176</v>
       </c>
     </row>
     <row r="46" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I46" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J46" t="s">
-        <v>176</v>
-      </c>
-      <c r="K46" t="s">
-        <v>165</v>
+        <v>102</v>
       </c>
       <c r="L46" t="s">
-        <v>177</v>
+        <v>103</v>
       </c>
     </row>
     <row r="47" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I47" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J47" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="L47" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
     <row r="48" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I48" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J48" t="s">
-        <v>113</v>
+        <v>157</v>
+      </c>
+      <c r="K48" t="s">
+        <v>167</v>
       </c>
       <c r="L48" t="s">
-        <v>114</v>
+        <v>158</v>
+      </c>
+      <c r="M48" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="49" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I49" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J49" t="s">
-        <v>158</v>
-      </c>
-      <c r="K49" t="s">
-        <v>168</v>
+        <v>98</v>
       </c>
       <c r="L49" t="s">
-        <v>159</v>
+        <v>99</v>
       </c>
       <c r="M49" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
     </row>
     <row r="50" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I50" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J50" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="L50" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="M50" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="51" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I51" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="J51" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="L51" t="s">
-        <v>98</v>
-      </c>
-      <c r="M51" t="s">
-        <v>175</v>
+        <v>109</v>
       </c>
     </row>
     <row r="52" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I52" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="J52" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L52" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="53" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I53" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="J53" t="s">
-        <v>111</v>
+        <v>177</v>
+      </c>
+      <c r="K53" t="s">
+        <v>167</v>
       </c>
       <c r="L53" t="s">
-        <v>112</v>
+        <v>238</v>
+      </c>
+      <c r="M53" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="54" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I54" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="J54" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="K54" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="L54" t="s">
-        <v>239</v>
+        <v>193</v>
       </c>
       <c r="M54" t="s">
-        <v>240</v>
+        <v>194</v>
       </c>
     </row>
     <row r="55" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I55" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="J55" t="s">
-        <v>192</v>
+        <v>61</v>
       </c>
       <c r="K55" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="L55" t="s">
-        <v>194</v>
-      </c>
-      <c r="M55" t="s">
-        <v>195</v>
+        <v>152</v>
       </c>
     </row>
     <row r="56" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I56" t="s">
-        <v>201</v>
+        <v>278</v>
       </c>
       <c r="J56" t="s">
-        <v>62</v>
-      </c>
-      <c r="K56" t="s">
-        <v>191</v>
+        <v>59</v>
       </c>
       <c r="L56" t="s">
-        <v>153</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I57" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J57" t="s">
+        <v>160</v>
+      </c>
+      <c r="K57" t="s">
+        <v>164</v>
+      </c>
+      <c r="L57" t="s">
         <v>161</v>
-      </c>
-      <c r="K57" t="s">
-        <v>165</v>
-      </c>
-      <c r="L57" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="58" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I58" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J58" t="s">
+        <v>155</v>
+      </c>
+      <c r="K58" t="s">
+        <v>170</v>
+      </c>
+      <c r="L58" t="s">
         <v>156</v>
       </c>
-      <c r="K58" t="s">
-        <v>171</v>
-      </c>
-      <c r="L58" t="s">
-        <v>157</v>
-      </c>
       <c r="M58" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="59" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I59" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J59" t="s">
+        <v>120</v>
+      </c>
+      <c r="L59" t="s">
         <v>121</v>
-      </c>
-      <c r="L59" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="60" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I60" t="s">
+        <v>239</v>
+      </c>
+      <c r="J60" t="s">
+        <v>240</v>
+      </c>
+      <c r="K60" t="s">
         <v>241</v>
       </c>
-      <c r="J60" t="s">
+      <c r="L60" t="s">
         <v>242</v>
       </c>
-      <c r="K60" t="s">
+      <c r="M60" t="s">
         <v>243</v>
-      </c>
-      <c r="L60" t="s">
-        <v>244</v>
-      </c>
-      <c r="M60" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="61" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I61" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J61" t="s">
+        <v>116</v>
+      </c>
+      <c r="L61" t="s">
         <v>117</v>
-      </c>
-      <c r="L61" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="62" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I62" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J62" t="s">
+        <v>118</v>
+      </c>
+      <c r="L62" t="s">
         <v>119</v>
-      </c>
-      <c r="L62" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="63" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I63" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J63" t="s">
         <v>42</v>
@@ -2276,7 +2280,7 @@
     </row>
     <row r="64" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I64" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J64" t="s">
         <v>13</v>
@@ -2287,7 +2291,7 @@
     </row>
     <row r="65" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I65" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J65" t="s">
         <v>36</v>
@@ -2298,7 +2302,7 @@
     </row>
     <row r="66" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I66" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J66" t="s">
         <v>38</v>
@@ -2309,7 +2313,7 @@
     </row>
     <row r="67" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I67" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J67" t="s">
         <v>40</v>
@@ -2320,24 +2324,24 @@
     </row>
     <row r="68" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I68" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J68" t="s">
+        <v>153</v>
+      </c>
+      <c r="K68" t="s">
+        <v>164</v>
+      </c>
+      <c r="L68" t="s">
         <v>154</v>
       </c>
-      <c r="K68" t="s">
-        <v>165</v>
-      </c>
-      <c r="L68" t="s">
-        <v>155</v>
-      </c>
       <c r="M68" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="69" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I69" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J69" t="s">
         <v>34</v>
@@ -2346,23 +2350,23 @@
         <v>35</v>
       </c>
       <c r="M69" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="70" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I70" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J70" t="s">
+        <v>124</v>
+      </c>
+      <c r="L70" t="s">
         <v>125</v>
-      </c>
-      <c r="L70" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="71" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I71" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J71" t="s">
         <v>9</v>
@@ -2373,18 +2377,18 @@
     </row>
     <row r="72" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I72" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J72" t="s">
+        <v>129</v>
+      </c>
+      <c r="L72" t="s">
         <v>130</v>
-      </c>
-      <c r="L72" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="73" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I73" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J73" t="s">
         <v>26</v>
@@ -2393,12 +2397,12 @@
         <v>24</v>
       </c>
       <c r="M73" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="74" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I74" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J74" t="s">
         <v>6</v>
@@ -2409,7 +2413,7 @@
     </row>
     <row r="75" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I75" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J75" t="s">
         <v>15</v>
@@ -2420,76 +2424,76 @@
     </row>
     <row r="76" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I76" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J76" t="s">
+        <v>69</v>
+      </c>
+      <c r="L76" t="s">
         <v>70</v>
-      </c>
-      <c r="L76" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="77" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I77" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J77" t="s">
+        <v>94</v>
+      </c>
+      <c r="L77" t="s">
         <v>95</v>
-      </c>
-      <c r="L77" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="78" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I78" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J78" t="s">
+        <v>126</v>
+      </c>
+      <c r="L78" t="s">
         <v>127</v>
-      </c>
-      <c r="L78" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="79" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I79" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J79" t="s">
+        <v>138</v>
+      </c>
+      <c r="L79" t="s">
         <v>139</v>
       </c>
-      <c r="L79" t="s">
+      <c r="M79" t="s">
         <v>140</v>
-      </c>
-      <c r="M79" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="80" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I80" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J80" t="s">
+        <v>51</v>
+      </c>
+      <c r="L80" t="s">
         <v>52</v>
-      </c>
-      <c r="L80" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="81" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I81" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J81" t="s">
+        <v>131</v>
+      </c>
+      <c r="L81" t="s">
         <v>132</v>
-      </c>
-      <c r="L81" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="82" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I82" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J82" t="s">
         <v>25</v>
@@ -2500,276 +2504,276 @@
     </row>
     <row r="83" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I83" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J83" t="s">
+        <v>141</v>
+      </c>
+      <c r="L83" t="s">
         <v>142</v>
       </c>
-      <c r="L83" t="s">
+      <c r="M83" t="s">
         <v>143</v>
-      </c>
-      <c r="M83" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="84" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I84" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J84" t="s">
+        <v>133</v>
+      </c>
+      <c r="L84" t="s">
         <v>134</v>
       </c>
-      <c r="L84" t="s">
-        <v>135</v>
-      </c>
       <c r="M84" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="85" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I85" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J85" t="s">
+        <v>147</v>
+      </c>
+      <c r="L85" t="s">
         <v>148</v>
       </c>
-      <c r="L85" t="s">
-        <v>149</v>
-      </c>
       <c r="M85" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="86" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I86" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J86" t="s">
+        <v>122</v>
+      </c>
+      <c r="L86" t="s">
         <v>123</v>
-      </c>
-      <c r="L86" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="87" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I87" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J87" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L87" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M87" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="88" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I88" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J88" t="s">
+        <v>49</v>
+      </c>
+      <c r="L88" t="s">
         <v>50</v>
       </c>
-      <c r="L88" t="s">
-        <v>51</v>
-      </c>
       <c r="M88" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="89" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I89" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J89" t="s">
+        <v>55</v>
+      </c>
+      <c r="L89" t="s">
         <v>56</v>
       </c>
-      <c r="L89" t="s">
-        <v>57</v>
-      </c>
       <c r="M89" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="90" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I90" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J90" t="s">
+        <v>114</v>
+      </c>
+      <c r="L90" t="s">
         <v>115</v>
-      </c>
-      <c r="L90" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="91" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I91" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J91" t="s">
+        <v>162</v>
+      </c>
+      <c r="K91" t="s">
+        <v>164</v>
+      </c>
+      <c r="L91" t="s">
         <v>163</v>
       </c>
-      <c r="K91" t="s">
-        <v>165</v>
-      </c>
-      <c r="L91" t="s">
-        <v>164</v>
-      </c>
       <c r="M91" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="92" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I92" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J92" t="s">
+        <v>53</v>
+      </c>
+      <c r="L92" t="s">
         <v>54</v>
-      </c>
-      <c r="L92" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="93" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I93" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J93" t="s">
+        <v>144</v>
+      </c>
+      <c r="L93" t="s">
         <v>145</v>
       </c>
-      <c r="L93" t="s">
-        <v>146</v>
-      </c>
       <c r="M93" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="94" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I94" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J94" t="s">
+        <v>272</v>
+      </c>
+      <c r="K94" t="s">
+        <v>273</v>
+      </c>
+      <c r="L94" t="s">
         <v>274</v>
-      </c>
-      <c r="K94" t="s">
-        <v>275</v>
-      </c>
-      <c r="L94" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="95" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I95" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J95" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K95" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="L95" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="96" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I96" t="s">
+        <v>252</v>
+      </c>
+      <c r="J96" t="s">
+        <v>253</v>
+      </c>
+      <c r="K96" t="s">
+        <v>164</v>
+      </c>
+      <c r="L96" t="s">
         <v>254</v>
-      </c>
-      <c r="J96" t="s">
-        <v>255</v>
-      </c>
-      <c r="K96" t="s">
-        <v>165</v>
-      </c>
-      <c r="L96" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="97" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I97" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="J97" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K97" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L97" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="98" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I98" t="s">
+        <v>258</v>
+      </c>
+      <c r="J98" t="s">
+        <v>259</v>
+      </c>
+      <c r="K98" t="s">
         <v>260</v>
       </c>
-      <c r="J98" t="s">
+      <c r="L98" t="s">
         <v>261</v>
-      </c>
-      <c r="K98" t="s">
-        <v>262</v>
-      </c>
-      <c r="L98" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="99" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I99" t="s">
+        <v>255</v>
+      </c>
+      <c r="J99" t="s">
+        <v>256</v>
+      </c>
+      <c r="K99" t="s">
+        <v>164</v>
+      </c>
+      <c r="L99" t="s">
         <v>257</v>
-      </c>
-      <c r="J99" t="s">
-        <v>258</v>
-      </c>
-      <c r="K99" t="s">
-        <v>165</v>
-      </c>
-      <c r="L99" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="100" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I100" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="J100" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K100" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L100" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="101" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I101" t="s">
+        <v>249</v>
+      </c>
+      <c r="J101" t="s">
+        <v>250</v>
+      </c>
+      <c r="K101" t="s">
         <v>251</v>
       </c>
-      <c r="J101" t="s">
-        <v>252</v>
-      </c>
-      <c r="K101" t="s">
-        <v>253</v>
-      </c>
       <c r="L101" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="102" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I102" t="s">
+        <v>263</v>
+      </c>
+      <c r="J102" t="s">
         <v>265</v>
       </c>
-      <c r="J102" t="s">
-        <v>267</v>
-      </c>
       <c r="K102" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="L102" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>

--- a/Dictionary.xlsx
+++ b/Dictionary.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="240">
   <si>
     <t>Battery</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -122,18 +122,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>한파</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Heat Wave</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Cold Snap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>비고</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -162,14 +154,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Centipede</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>센티피드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Drifter</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -202,14 +186,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Butcher</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도축</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Turret</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -222,14 +198,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Multiplier</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>계수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Global</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -246,22 +214,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Phoebe Basebuilder</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포이베 베이스빌더</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Carpet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>양탄자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Power Armor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -278,10 +230,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>인공지능 칩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>인공인격</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -410,22 +358,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Rifle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소총</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pistol</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>권총</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Charge</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -466,22 +398,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Short Bow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>단궁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Long Bow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장궁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Psychic</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -662,10 +578,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>그냥 PDW로 하는 것도?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Shield</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -682,10 +594,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(Alpha 9)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>전</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -694,22 +602,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(Alpha 9)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선봉장에서 변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>커다란 금속 파편에서 변경</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>속보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Brew</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -722,135 +618,359 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Heavy SMG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중기관단총</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Survival</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Teak</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>티크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hyper- + Weave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S(X)erum + -ium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Synth- + Thread</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ludicrous + Ludeon Studio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cloth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button-down Shirt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>셔츠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>범주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>식물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>식물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부족</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용병</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부족</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sculpture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조각상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생존</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Neurotic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강박증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Charge Lance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초전자창 (발사기)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NameBanks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slicer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NameBanks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crusher</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분쇄자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NameBanks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jacker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밤사냥꾼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NameBanks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Facebeater</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼굴파괴자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도살자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NameBanks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cutter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Splitter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분해자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Banger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shanker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>칼잡이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주먹꾼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alligator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>민물악어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Core</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생존소총</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>림월드 낱말 번역사전 (15년 3월 28일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>다음번 사전에서 제외</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Heavy SMG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중기관단총</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Survival</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Teak</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(Alpha 9)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>티크</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나무 이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hyper- + Weave</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S(X)erum + -ium</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Synth- + Thread</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ludicrous + Ludeon Studio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cloth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>옷감</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>천</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>옷감 바지 -&gt; 천 바지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>더스터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Button-down Shirt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>단추 달린 셔츠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>셔츠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>천 단추 달린 셔츠 -&gt; 천 셔츠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>범주</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>건물</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>건물</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>의류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>건물</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>건물</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해적</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동물</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무기</t>
+    <t>개인방어화기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지옥화염포</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -858,287 +978,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>식물</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>설정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>식물</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기타</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기타</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>건물</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>의류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메카노이드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부족</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기타</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기타</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기타</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>특성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>용병</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해적</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>의류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>건물</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해적</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부족</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>건물</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sculpture</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조각</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조각상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>clarify</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>速報와 헷갈림 (步)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>생존</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>특성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Neurotic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>불안증세</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강박증</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>특성 감안</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Charge Lance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>차지 랜스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>의역</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>초전자창 (발사기)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NameBanks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Slicer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(Alpha 9)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NameBanks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Crusher</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>분쇄자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NameBanks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jacker</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>밤사냥꾼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NameBanks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Facebeater</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(Alpha 9)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>얼굴파괴자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도살자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NameBanks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cutter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Splitter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>분해자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Banger</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shanker</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>칼잡이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>백정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주먹꾼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alligator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(Alpha 9)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>민물악어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>림월드 낱말 번역사전 (15년 2월 12일)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Core</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>생존소총</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>의류</t>
+    <t>Spacer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우주문명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1224,7 +1068,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="표2" displayName="표2" ref="I5:M102" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="표2" displayName="표2" ref="I5:M93" totalsRowShown="0">
   <sortState ref="I6:M102">
     <sortCondition ref="I6:I102" customList="설정,건물,식물,동물,아이템,무기,의류,특성,외지인,부족,해적,용병,메카노이드,기타,NameBanks"/>
     <sortCondition ref="J6:J102"/>
@@ -1504,10 +1348,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="I3:M102"/>
+  <dimension ref="I3:M93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K56" sqref="K56"/>
+    <sheetView tabSelected="1" topLeftCell="B61" workbookViewId="0">
+      <selection activeCell="O82" sqref="O82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1523,7 +1367,7 @@
   <sheetData>
     <row r="3" spans="9:13" ht="26.25" x14ac:dyDescent="0.3">
       <c r="I3" s="1" t="s">
-        <v>275</v>
+        <v>233</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -1532,35 +1376,35 @@
     </row>
     <row r="5" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I5" t="s">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c r="J5" t="s">
         <v>8</v>
       </c>
       <c r="K5" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="L5" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="M5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I6" t="s">
-        <v>209</v>
+        <v>176</v>
       </c>
       <c r="J6" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="L6" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I7" t="s">
-        <v>202</v>
+        <v>169</v>
       </c>
       <c r="J7" t="s">
         <v>0</v>
@@ -1571,963 +1415,897 @@
     </row>
     <row r="8" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I8" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="J8" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="L8" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I9" t="s">
-        <v>202</v>
+        <v>169</v>
       </c>
       <c r="J9" t="s">
-        <v>171</v>
-      </c>
-      <c r="K9" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="L9" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I10" t="s">
-        <v>215</v>
+        <v>170</v>
       </c>
       <c r="J10" t="s">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="L10" t="s">
-        <v>45</v>
-      </c>
-      <c r="M10" t="s">
-        <v>174</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I11" t="s">
-        <v>215</v>
+        <v>166</v>
       </c>
       <c r="J11" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="L11" t="s">
-        <v>58</v>
-      </c>
-      <c r="M11" t="s">
-        <v>174</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I12" t="s">
-        <v>203</v>
+        <v>164</v>
       </c>
       <c r="J12" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L12" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I13" t="s">
-        <v>199</v>
+        <v>169</v>
       </c>
       <c r="J13" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="L13" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I14" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
       <c r="J14" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="L14" t="s">
-        <v>5</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I15" t="s">
-        <v>202</v>
+        <v>170</v>
       </c>
       <c r="J15" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="L15" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I16" t="s">
-        <v>203</v>
+        <v>169</v>
       </c>
       <c r="J16" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="L16" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I17" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="J17" t="s">
-        <v>71</v>
+        <v>198</v>
       </c>
       <c r="L17" t="s">
-        <v>72</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I18" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="J18" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="L18" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I19" t="s">
-        <v>232</v>
+        <v>169</v>
       </c>
       <c r="J19" t="s">
-        <v>233</v>
-      </c>
-      <c r="K19" t="s">
-        <v>234</v>
+        <v>40</v>
       </c>
       <c r="L19" t="s">
-        <v>235</v>
-      </c>
-      <c r="M19" t="s">
-        <v>236</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I20" t="s">
-        <v>229</v>
+        <v>178</v>
       </c>
       <c r="J20" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="L20" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I21" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="J21" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="L21" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I22" t="s">
-        <v>211</v>
+        <v>178</v>
       </c>
       <c r="J22" t="s">
-        <v>92</v>
+        <v>151</v>
       </c>
       <c r="L22" t="s">
-        <v>93</v>
+        <v>152</v>
+      </c>
+      <c r="M22" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I23" t="s">
-        <v>211</v>
+        <v>175</v>
       </c>
       <c r="J23" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="L23" t="s">
-        <v>91</v>
+        <v>76</v>
+      </c>
+      <c r="M23" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I24" t="s">
-        <v>211</v>
+        <v>172</v>
       </c>
       <c r="J24" t="s">
-        <v>178</v>
-      </c>
-      <c r="K24" t="s">
-        <v>179</v>
+        <v>30</v>
       </c>
       <c r="L24" t="s">
-        <v>180</v>
-      </c>
-      <c r="M24" t="s">
-        <v>181</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I25" t="s">
-        <v>208</v>
+        <v>172</v>
       </c>
       <c r="J25" t="s">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="L25" t="s">
-        <v>89</v>
-      </c>
-      <c r="M25" t="s">
-        <v>183</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I26" t="s">
-        <v>205</v>
+        <v>172</v>
       </c>
       <c r="J26" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="L26" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I27" t="s">
-        <v>205</v>
+        <v>177</v>
       </c>
       <c r="J27" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="L27" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I28" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="J28" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="L28" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I29" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="J29" t="s">
-        <v>62</v>
-      </c>
-      <c r="K29" t="s">
-        <v>63</v>
+        <v>158</v>
       </c>
       <c r="L29" t="s">
-        <v>64</v>
+        <v>159</v>
+      </c>
+      <c r="M29" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="30" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I30" t="s">
-        <v>214</v>
+        <v>187</v>
       </c>
       <c r="J30" t="s">
-        <v>19</v>
+        <v>230</v>
       </c>
       <c r="L30" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I31" t="s">
-        <v>223</v>
+        <v>163</v>
       </c>
       <c r="J31" t="s">
-        <v>186</v>
-      </c>
-      <c r="K31" t="s">
-        <v>187</v>
+        <v>68</v>
       </c>
       <c r="L31" t="s">
-        <v>188</v>
+        <v>69</v>
       </c>
       <c r="M31" t="s">
-        <v>189</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I32" t="s">
-        <v>222</v>
+        <v>177</v>
       </c>
       <c r="J32" t="s">
-        <v>276</v>
+        <v>73</v>
       </c>
       <c r="L32" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I33" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="J33" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="L33" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="M33" t="s">
-        <v>85</v>
+        <v>154</v>
       </c>
     </row>
     <row r="34" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I34" t="s">
-        <v>210</v>
+        <v>177</v>
       </c>
       <c r="J34" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="L34" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I35" t="s">
-        <v>210</v>
+        <v>177</v>
       </c>
       <c r="J35" t="s">
-        <v>83</v>
+        <v>21</v>
       </c>
       <c r="L35" t="s">
-        <v>84</v>
-      </c>
-      <c r="M35" t="s">
-        <v>182</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I36" t="s">
-        <v>210</v>
+        <v>177</v>
       </c>
       <c r="J36" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="L36" t="s">
-        <v>78</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I37" t="s">
-        <v>210</v>
+        <v>163</v>
       </c>
       <c r="J37" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="L37" t="s">
-        <v>22</v>
+        <v>67</v>
+      </c>
+      <c r="M37" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="38" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I38" t="s">
-        <v>210</v>
+        <v>173</v>
       </c>
       <c r="J38" t="s">
-        <v>17</v>
+        <v>128</v>
       </c>
       <c r="L38" t="s">
-        <v>18</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I39" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="J39" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L39" t="s">
-        <v>80</v>
-      </c>
-      <c r="M39" t="s">
-        <v>184</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I40" t="s">
+        <v>204</v>
+      </c>
+      <c r="J40" t="s">
+        <v>205</v>
+      </c>
+      <c r="L40" t="s">
         <v>206</v>
-      </c>
-      <c r="J40" t="s">
-        <v>149</v>
-      </c>
-      <c r="L40" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="41" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I41" t="s">
-        <v>217</v>
+        <v>165</v>
       </c>
       <c r="J41" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="L41" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I42" t="s">
-        <v>244</v>
+        <v>173</v>
       </c>
       <c r="J42" t="s">
-        <v>245</v>
-      </c>
-      <c r="K42" t="s">
-        <v>246</v>
+        <v>89</v>
       </c>
       <c r="L42" t="s">
-        <v>248</v>
-      </c>
-      <c r="M42" t="s">
-        <v>247</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I43" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="J43" t="s">
-        <v>104</v>
+        <v>148</v>
       </c>
       <c r="L43" t="s">
-        <v>105</v>
+        <v>149</v>
       </c>
     </row>
     <row r="44" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I44" t="s">
-        <v>206</v>
+        <v>173</v>
       </c>
       <c r="J44" t="s">
-        <v>106</v>
+        <v>85</v>
+      </c>
+      <c r="K44" t="s">
+        <v>86</v>
       </c>
       <c r="L44" t="s">
-        <v>107</v>
+        <v>236</v>
       </c>
     </row>
     <row r="45" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I45" t="s">
-        <v>206</v>
+        <v>173</v>
       </c>
       <c r="J45" t="s">
-        <v>175</v>
+        <v>136</v>
       </c>
       <c r="K45" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="L45" t="s">
-        <v>176</v>
+        <v>235</v>
       </c>
     </row>
     <row r="46" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I46" t="s">
-        <v>206</v>
+        <v>168</v>
       </c>
       <c r="J46" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="L46" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I47" t="s">
-        <v>206</v>
+        <v>168</v>
       </c>
       <c r="J47" t="s">
-        <v>112</v>
+        <v>150</v>
       </c>
       <c r="L47" t="s">
-        <v>113</v>
+        <v>200</v>
+      </c>
+      <c r="M47" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="48" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I48" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="J48" t="s">
-        <v>157</v>
-      </c>
-      <c r="K48" t="s">
+        <v>160</v>
+      </c>
+      <c r="L48" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="49" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I49" t="s">
         <v>167</v>
       </c>
-      <c r="L48" t="s">
-        <v>158</v>
-      </c>
-      <c r="M48" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="49" spans="9:13" x14ac:dyDescent="0.3">
-      <c r="I49" t="s">
-        <v>206</v>
-      </c>
       <c r="J49" t="s">
+        <v>49</v>
+      </c>
+      <c r="L49" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="50" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I50" t="s">
+        <v>232</v>
+      </c>
+      <c r="J50" t="s">
+        <v>47</v>
+      </c>
+      <c r="L50" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I51" t="s">
+        <v>193</v>
+      </c>
+      <c r="J51" t="s">
+        <v>138</v>
+      </c>
+      <c r="L51" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="52" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I52" t="s">
+        <v>190</v>
+      </c>
+      <c r="J52" t="s">
+        <v>134</v>
+      </c>
+      <c r="L52" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="53" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I53" t="s">
+        <v>190</v>
+      </c>
+      <c r="J53" t="s">
+        <v>99</v>
+      </c>
+      <c r="L53" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I54" t="s">
+        <v>201</v>
+      </c>
+      <c r="J54" t="s">
+        <v>202</v>
+      </c>
+      <c r="L54" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="55" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I55" t="s">
+        <v>190</v>
+      </c>
+      <c r="J55" t="s">
+        <v>95</v>
+      </c>
+      <c r="L55" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="56" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I56" t="s">
+        <v>190</v>
+      </c>
+      <c r="J56" t="s">
+        <v>97</v>
+      </c>
+      <c r="L56" t="s">
         <v>98</v>
       </c>
-      <c r="L49" t="s">
-        <v>99</v>
-      </c>
-      <c r="M49" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="50" spans="9:13" x14ac:dyDescent="0.3">
-      <c r="I50" t="s">
-        <v>206</v>
-      </c>
-      <c r="J50" t="s">
-        <v>96</v>
-      </c>
-      <c r="L50" t="s">
-        <v>97</v>
-      </c>
-      <c r="M50" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="51" spans="9:13" x14ac:dyDescent="0.3">
-      <c r="I51" t="s">
-        <v>201</v>
-      </c>
-      <c r="J51" t="s">
-        <v>108</v>
-      </c>
-      <c r="L51" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="52" spans="9:13" x14ac:dyDescent="0.3">
-      <c r="I52" t="s">
-        <v>206</v>
-      </c>
-      <c r="J52" t="s">
-        <v>110</v>
-      </c>
-      <c r="L52" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="53" spans="9:13" x14ac:dyDescent="0.3">
-      <c r="I53" t="s">
-        <v>201</v>
-      </c>
-      <c r="J53" t="s">
-        <v>177</v>
-      </c>
-      <c r="K53" t="s">
-        <v>167</v>
-      </c>
-      <c r="L53" t="s">
-        <v>238</v>
-      </c>
-      <c r="M53" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="54" spans="9:13" x14ac:dyDescent="0.3">
-      <c r="I54" t="s">
-        <v>216</v>
-      </c>
-      <c r="J54" t="s">
+    </row>
+    <row r="57" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I57" t="s">
+        <v>184</v>
+      </c>
+      <c r="J57" t="s">
+        <v>38</v>
+      </c>
+      <c r="L57" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="58" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I58" t="s">
+        <v>196</v>
+      </c>
+      <c r="J58" t="s">
+        <v>13</v>
+      </c>
+      <c r="L58" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I59" t="s">
+        <v>171</v>
+      </c>
+      <c r="J59" t="s">
+        <v>32</v>
+      </c>
+      <c r="L59" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="60" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I60" t="s">
+        <v>192</v>
+      </c>
+      <c r="J60" t="s">
+        <v>34</v>
+      </c>
+      <c r="L60" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="61" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I61" t="s">
+        <v>195</v>
+      </c>
+      <c r="J61" t="s">
+        <v>36</v>
+      </c>
+      <c r="L61" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="62" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I62" t="s">
         <v>191</v>
       </c>
-      <c r="K54" t="s">
-        <v>192</v>
-      </c>
-      <c r="L54" t="s">
-        <v>193</v>
-      </c>
-      <c r="M54" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="55" spans="9:13" x14ac:dyDescent="0.3">
-      <c r="I55" t="s">
-        <v>200</v>
-      </c>
-      <c r="J55" t="s">
-        <v>61</v>
-      </c>
-      <c r="K55" t="s">
-        <v>190</v>
-      </c>
-      <c r="L55" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="56" spans="9:13" x14ac:dyDescent="0.3">
-      <c r="I56" t="s">
-        <v>278</v>
-      </c>
-      <c r="J56" t="s">
-        <v>59</v>
-      </c>
-      <c r="L56" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="57" spans="9:13" x14ac:dyDescent="0.3">
-      <c r="I57" t="s">
-        <v>228</v>
-      </c>
-      <c r="J57" t="s">
-        <v>160</v>
-      </c>
-      <c r="K57" t="s">
-        <v>164</v>
-      </c>
-      <c r="L57" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="58" spans="9:13" x14ac:dyDescent="0.3">
-      <c r="I58" t="s">
-        <v>225</v>
-      </c>
-      <c r="J58" t="s">
-        <v>155</v>
-      </c>
-      <c r="K58" t="s">
-        <v>170</v>
-      </c>
-      <c r="L58" t="s">
-        <v>156</v>
-      </c>
-      <c r="M58" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="59" spans="9:13" x14ac:dyDescent="0.3">
-      <c r="I59" t="s">
-        <v>225</v>
-      </c>
-      <c r="J59" t="s">
-        <v>120</v>
-      </c>
-      <c r="L59" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="60" spans="9:13" x14ac:dyDescent="0.3">
-      <c r="I60" t="s">
-        <v>239</v>
-      </c>
-      <c r="J60" t="s">
-        <v>240</v>
-      </c>
-      <c r="K60" t="s">
-        <v>241</v>
-      </c>
-      <c r="L60" t="s">
-        <v>242</v>
-      </c>
-      <c r="M60" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="61" spans="9:13" x14ac:dyDescent="0.3">
-      <c r="I61" t="s">
-        <v>225</v>
-      </c>
-      <c r="J61" t="s">
-        <v>116</v>
-      </c>
-      <c r="L61" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="62" spans="9:13" x14ac:dyDescent="0.3">
-      <c r="I62" t="s">
-        <v>225</v>
-      </c>
       <c r="J62" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="L62" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="63" spans="9:13" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="63" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I63" t="s">
-        <v>219</v>
+        <v>179</v>
       </c>
       <c r="J63" t="s">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="L63" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="64" spans="9:13" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="64" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I64" t="s">
-        <v>231</v>
+        <v>180</v>
       </c>
       <c r="J64" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L64" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I65" t="s">
-        <v>204</v>
+        <v>174</v>
       </c>
       <c r="J65" t="s">
-        <v>36</v>
+        <v>108</v>
       </c>
       <c r="L65" t="s">
-        <v>37</v>
+        <v>109</v>
       </c>
     </row>
     <row r="66" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I66" t="s">
-        <v>227</v>
+        <v>185</v>
       </c>
       <c r="J66" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="L66" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I67" t="s">
-        <v>230</v>
+        <v>186</v>
       </c>
       <c r="J67" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="L67" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I68" t="s">
-        <v>226</v>
+        <v>174</v>
       </c>
       <c r="J68" t="s">
-        <v>153</v>
-      </c>
-      <c r="K68" t="s">
-        <v>164</v>
+        <v>56</v>
       </c>
       <c r="L68" t="s">
-        <v>154</v>
-      </c>
-      <c r="M68" t="s">
-        <v>168</v>
+        <v>57</v>
       </c>
     </row>
     <row r="69" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I69" t="s">
-        <v>218</v>
+        <v>189</v>
       </c>
       <c r="J69" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="L69" t="s">
-        <v>35</v>
-      </c>
-      <c r="M69" t="s">
-        <v>174</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I70" t="s">
-        <v>212</v>
+        <v>179</v>
       </c>
       <c r="J70" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="L70" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
     </row>
     <row r="71" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I71" t="s">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="J71" t="s">
-        <v>9</v>
+        <v>117</v>
       </c>
       <c r="L71" t="s">
-        <v>10</v>
+        <v>118</v>
+      </c>
+      <c r="M71" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="72" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I72" t="s">
-        <v>207</v>
+        <v>179</v>
       </c>
       <c r="J72" t="s">
-        <v>129</v>
+        <v>43</v>
       </c>
       <c r="L72" t="s">
-        <v>130</v>
+        <v>44</v>
       </c>
     </row>
     <row r="73" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I73" t="s">
-        <v>207</v>
+        <v>179</v>
       </c>
       <c r="J73" t="s">
-        <v>26</v>
+        <v>110</v>
       </c>
       <c r="L73" t="s">
-        <v>24</v>
-      </c>
-      <c r="M73" t="s">
-        <v>174</v>
+        <v>111</v>
       </c>
     </row>
     <row r="74" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I74" t="s">
-        <v>220</v>
+        <v>179</v>
       </c>
       <c r="J74" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="L74" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I75" t="s">
-        <v>221</v>
+        <v>179</v>
       </c>
       <c r="J75" t="s">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="L75" t="s">
-        <v>16</v>
+        <v>121</v>
+      </c>
+      <c r="M75" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="76" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I76" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="J76" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="L76" t="s">
-        <v>70</v>
+        <v>113</v>
+      </c>
+      <c r="M76" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="77" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I77" t="s">
-        <v>224</v>
+        <v>179</v>
       </c>
       <c r="J77" t="s">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="L77" t="s">
-        <v>95</v>
+        <v>127</v>
+      </c>
+      <c r="M77" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="78" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I78" t="s">
-        <v>212</v>
+        <v>179</v>
       </c>
       <c r="J78" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="L78" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
     </row>
     <row r="79" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I79" t="s">
-        <v>207</v>
+        <v>179</v>
       </c>
       <c r="J79" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="L79" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="M79" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
     <row r="80" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I80" t="s">
-        <v>212</v>
+        <v>179</v>
       </c>
       <c r="J80" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="L80" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
     </row>
     <row r="81" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I81" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="J81" t="s">
-        <v>131</v>
+        <v>238</v>
       </c>
       <c r="L81" t="s">
-        <v>132</v>
+        <v>239</v>
       </c>
     </row>
     <row r="82" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I82" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
       <c r="J82" t="s">
-        <v>25</v>
+        <v>140</v>
       </c>
       <c r="L82" t="s">
-        <v>23</v>
+        <v>141</v>
+      </c>
+      <c r="M82" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="83" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I83" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
       <c r="J83" t="s">
-        <v>141</v>
+        <v>45</v>
       </c>
       <c r="L83" t="s">
-        <v>142</v>
-      </c>
-      <c r="M83" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
     </row>
     <row r="84" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I84" t="s">
-        <v>220</v>
+        <v>185</v>
       </c>
       <c r="J84" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="L84" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="M84" t="s">
-        <v>185</v>
+        <v>147</v>
       </c>
     </row>
     <row r="85" spans="9:13" x14ac:dyDescent="0.3">
@@ -2535,13 +2313,10 @@
         <v>212</v>
       </c>
       <c r="J85" t="s">
-        <v>147</v>
+        <v>228</v>
       </c>
       <c r="L85" t="s">
-        <v>148</v>
-      </c>
-      <c r="M85" t="s">
-        <v>173</v>
+        <v>229</v>
       </c>
     </row>
     <row r="86" spans="9:13" x14ac:dyDescent="0.3">
@@ -2549,52 +2324,43 @@
         <v>212</v>
       </c>
       <c r="J86" t="s">
-        <v>122</v>
+        <v>223</v>
       </c>
       <c r="L86" t="s">
-        <v>123</v>
+        <v>227</v>
       </c>
     </row>
     <row r="87" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I87" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="J87" t="s">
-        <v>146</v>
+        <v>210</v>
       </c>
       <c r="L87" t="s">
-        <v>151</v>
-      </c>
-      <c r="M87" t="s">
-        <v>173</v>
+        <v>211</v>
       </c>
     </row>
     <row r="88" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I88" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="J88" t="s">
-        <v>49</v>
+        <v>220</v>
       </c>
       <c r="L88" t="s">
-        <v>50</v>
-      </c>
-      <c r="M88" t="s">
-        <v>174</v>
+        <v>226</v>
       </c>
     </row>
     <row r="89" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I89" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="J89" t="s">
-        <v>55</v>
+        <v>216</v>
       </c>
       <c r="L89" t="s">
-        <v>56</v>
-      </c>
-      <c r="M89" t="s">
-        <v>174</v>
+        <v>217</v>
       </c>
     </row>
     <row r="90" spans="9:13" x14ac:dyDescent="0.3">
@@ -2602,178 +2368,43 @@
         <v>212</v>
       </c>
       <c r="J90" t="s">
-        <v>114</v>
+        <v>213</v>
       </c>
       <c r="L90" t="s">
-        <v>115</v>
+        <v>214</v>
       </c>
     </row>
     <row r="91" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I91" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J91" t="s">
-        <v>162</v>
-      </c>
-      <c r="K91" t="s">
-        <v>164</v>
+        <v>224</v>
       </c>
       <c r="L91" t="s">
-        <v>163</v>
-      </c>
-      <c r="M91" t="s">
-        <v>169</v>
+        <v>225</v>
       </c>
     </row>
     <row r="92" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I92" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="J92" t="s">
-        <v>53</v>
+        <v>208</v>
       </c>
       <c r="L92" t="s">
-        <v>54</v>
+        <v>218</v>
       </c>
     </row>
     <row r="93" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I93" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J93" t="s">
-        <v>144</v>
+        <v>221</v>
       </c>
       <c r="L93" t="s">
-        <v>145</v>
-      </c>
-      <c r="M93" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="94" spans="9:13" x14ac:dyDescent="0.3">
-      <c r="I94" t="s">
-        <v>255</v>
-      </c>
-      <c r="J94" t="s">
-        <v>272</v>
-      </c>
-      <c r="K94" t="s">
-        <v>273</v>
-      </c>
-      <c r="L94" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="95" spans="9:13" x14ac:dyDescent="0.3">
-      <c r="I95" t="s">
-        <v>255</v>
-      </c>
-      <c r="J95" t="s">
-        <v>267</v>
-      </c>
-      <c r="K95" t="s">
-        <v>260</v>
-      </c>
-      <c r="L95" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="96" spans="9:13" x14ac:dyDescent="0.3">
-      <c r="I96" t="s">
-        <v>252</v>
-      </c>
-      <c r="J96" t="s">
-        <v>253</v>
-      </c>
-      <c r="K96" t="s">
-        <v>164</v>
-      </c>
-      <c r="L96" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="97" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I97" t="s">
-        <v>263</v>
-      </c>
-      <c r="J97" t="s">
-        <v>264</v>
-      </c>
-      <c r="K97" t="s">
-        <v>164</v>
-      </c>
-      <c r="L97" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="98" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I98" t="s">
-        <v>258</v>
-      </c>
-      <c r="J98" t="s">
-        <v>259</v>
-      </c>
-      <c r="K98" t="s">
-        <v>260</v>
-      </c>
-      <c r="L98" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="99" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I99" t="s">
-        <v>255</v>
-      </c>
-      <c r="J99" t="s">
-        <v>256</v>
-      </c>
-      <c r="K99" t="s">
-        <v>164</v>
-      </c>
-      <c r="L99" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="100" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I100" t="s">
-        <v>263</v>
-      </c>
-      <c r="J100" t="s">
-        <v>268</v>
-      </c>
-      <c r="K100" t="s">
-        <v>164</v>
-      </c>
-      <c r="L100" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="101" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I101" t="s">
-        <v>249</v>
-      </c>
-      <c r="J101" t="s">
-        <v>250</v>
-      </c>
-      <c r="K101" t="s">
-        <v>251</v>
-      </c>
-      <c r="L101" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="102" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I102" t="s">
-        <v>263</v>
-      </c>
-      <c r="J102" t="s">
-        <v>265</v>
-      </c>
-      <c r="K102" t="s">
-        <v>260</v>
-      </c>
-      <c r="L102" t="s">
-        <v>266</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
